--- a/summary.xlsx
+++ b/summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>Model</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>TensorRT</t>
+  </si>
+  <si>
+    <t>bert-99</t>
   </si>
   <si>
     <t>SingleStream</t>
@@ -661,7 +664,7 @@
     <col min="16" max="101" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="O1" s="2"/>
       <c r="P1" s="2" t="s">
         <v>3</v>
@@ -669,8 +672,10 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="O2" s="2" t="s">
         <v>0</v>
       </c>
@@ -682,42 +687,58 @@
         <v>5</v>
       </c>
       <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="O3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="O4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -764,7 +785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:21">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -822,12 +843,19 @@
       <c r="S6" s="1">
         <v>8.31776</v>
       </c>
+      <c r="T6" s="1">
+        <v>1.029482</v>
+      </c>
+      <c r="U6" s="1">
+        <v>8249.66</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="P1:S1"/>
+  <mergeCells count="4">
+    <mergeCell ref="P1:U1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:CW201">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
   <si>
     <t>Model</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>bert-99</t>
+  </si>
+  <si>
+    <t>bert-99.9</t>
   </si>
   <si>
     <t>SingleStream</t>
@@ -664,7 +667,7 @@
     <col min="16" max="101" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="O1" s="2"/>
       <c r="P1" s="2" t="s">
         <v>3</v>
@@ -674,8 +677,10 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23">
       <c r="O2" s="2" t="s">
         <v>0</v>
       </c>
@@ -691,54 +696,70 @@
         <v>32</v>
       </c>
       <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23">
       <c r="O3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="O4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -785,7 +806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:23">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -844,18 +865,25 @@
         <v>8.31776</v>
       </c>
       <c r="T6" s="1">
-        <v>1.029482</v>
+        <v>2.176032</v>
       </c>
       <c r="U6" s="1">
-        <v>8249.66</v>
+        <v>3336.89</v>
+      </c>
+      <c r="V6" s="1">
+        <v>2.176032</v>
+      </c>
+      <c r="W6" s="1">
+        <v>3336.89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="P1:U1"/>
+  <mergeCells count="5">
+    <mergeCell ref="P1:W1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:CW201">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
   <si>
     <t>Model</t>
   </si>
@@ -29,15 +29,24 @@
     <t>Result</t>
   </si>
   <si>
+    <t>resnet</t>
+  </si>
+  <si>
     <t>3d-unet-99</t>
   </si>
   <si>
     <t>3d-unet-99.9</t>
   </si>
   <si>
+    <t>Server</t>
+  </si>
+  <si>
     <t>Offline</t>
   </si>
   <si>
+    <t>Queries/s</t>
+  </si>
+  <si>
     <t>Samples/s</t>
   </si>
   <si>
@@ -120,6 +129,9 @@
   </si>
   <si>
     <t>SingleStream</t>
+  </si>
+  <si>
+    <t>MultiStream</t>
   </si>
   <si>
     <t>Latency (ms)</t>
@@ -502,129 +514,147 @@
     <col min="16" max="101" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="O1" s="2"/>
       <c r="P1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="O2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="S2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="O3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>8</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="O4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K6" s="2">
         <v>2</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2">
@@ -636,15 +666,22 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
+        <v>73725.3</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>87954.39999999999</v>
+      </c>
+      <c r="R6" s="1">
         <v>8.31776</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="S6" s="1">
         <v>8.31776</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="P1:Q1"/>
+  <mergeCells count="2">
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:CW201">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -667,7 +704,7 @@
     <col min="16" max="101" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:26">
       <c r="O1" s="2"/>
       <c r="P1" s="2" t="s">
         <v>3</v>
@@ -679,8 +716,11 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26">
       <c r="O2" s="2" t="s">
         <v>0</v>
       </c>
@@ -688,160 +728,183 @@
         <v>4</v>
       </c>
       <c r="Q2" s="2"/>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" s="2"/>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26">
       <c r="O3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+        <v>37</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="O4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <v>39</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K6" s="2">
         <v>2</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2">
@@ -853,37 +916,47 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
+        <v>0.304746</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.506621</v>
+      </c>
+      <c r="R6" s="1">
+        <v>87954.39999999999</v>
+      </c>
+      <c r="S6" s="1">
         <v>433.748924</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="T6" s="1">
         <v>8.31776</v>
       </c>
-      <c r="R6" s="1">
+      <c r="U6" s="1">
         <v>433.748924</v>
       </c>
-      <c r="S6" s="1">
+      <c r="V6" s="1">
         <v>8.31776</v>
       </c>
-      <c r="T6" s="1">
+      <c r="W6" s="1">
         <v>2.176032</v>
       </c>
-      <c r="U6" s="1">
+      <c r="X6" s="1">
         <v>3336.89</v>
       </c>
-      <c r="V6" s="1">
+      <c r="Y6" s="1">
         <v>2.176032</v>
       </c>
-      <c r="W6" s="1">
+      <c r="Z6" s="1">
         <v>3336.89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="P1:W1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
+  <mergeCells count="6">
+    <mergeCell ref="P1:Z1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:CW201">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="datacenter - closed" sheetId="1" r:id="rId1"/>
     <sheet name="edge - closed" sheetId="2" r:id="rId2"/>
+    <sheet name="edge - open" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
   <si>
     <t>Model</t>
   </si>
@@ -135,6 +136,39 @@
   </si>
   <si>
     <t>Latency (ms)</t>
+  </si>
+  <si>
+    <t>UsedModel</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>5.0-0002</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/Asus_Tuf-reference-cpu-onnxruntime_v1.20.1-default_config/resnet50</t>
+  </si>
+  <si>
+    <t>availableGATEOverflow</t>
+  </si>
+  <si>
+    <t>GATEOverflow</t>
+  </si>
+  <si>
+    <t>junikki</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 3750H with Radeon Vega Mobile Gfx</t>
+  </si>
+  <si>
+    <t>onnxruntime v1.20.1</t>
+  </si>
+  <si>
+    <t>resnet50</t>
+  </si>
+  <si>
+    <t>acc: 76.456</t>
   </si>
 </sst>
 </file>
@@ -965,4 +999,187 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CW6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="101" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="Q2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="Q3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="Q4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/Asus_Tuf-reference-cpu-onnxruntime_v1.20.1-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>88.252341</v>
+      </c>
+      <c r="S6" s="1">
+        <v>502.542248</v>
+      </c>
+      <c r="T6" s="1">
+        <v>17.0229</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R2:T2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A6:CW201">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>mod(countunique($c$6:$c6), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/summary.xlsx
+++ b/summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="52">
   <si>
     <t>Model</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>resnet</t>
+  </si>
+  <si>
+    <t>retinanet</t>
   </si>
   <si>
     <t>3d-unet-99</t>
@@ -548,7 +551,7 @@
     <col min="16" max="101" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="O1" s="2"/>
       <c r="P1" s="2" t="s">
         <v>3</v>
@@ -556,8 +559,10 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="O2" s="2" t="s">
         <v>0</v>
       </c>
@@ -568,127 +573,143 @@
       <c r="R2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="2"/>
+      <c r="T2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="U2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="O3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>9</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="O4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>11</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2">
         <v>2</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2">
@@ -706,16 +727,23 @@
         <v>87954.39999999999</v>
       </c>
       <c r="R6" s="1">
+        <v>1414.97</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1733.78</v>
+      </c>
+      <c r="T6" s="1">
         <v>8.31776</v>
       </c>
-      <c r="S6" s="1">
+      <c r="U6" s="1">
         <v>8.31776</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="P1:S1"/>
+  <mergeCells count="3">
+    <mergeCell ref="P1:U1"/>
     <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:CW201">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -738,7 +766,7 @@
     <col min="16" max="101" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:29">
       <c r="O1" s="2"/>
       <c r="P1" s="2" t="s">
         <v>3</v>
@@ -753,8 +781,11 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+    </row>
+    <row r="2" spans="1:29">
       <c r="O2" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,178 +798,201 @@
         <v>5</v>
       </c>
       <c r="T2" s="2"/>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="2"/>
+      <c r="V2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2" t="s">
+      <c r="W2" s="2"/>
+      <c r="X2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="2"/>
+    </row>
+    <row r="3" spans="1:29">
       <c r="O3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="T3" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+        <v>38</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="O4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2">
         <v>2</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2">
@@ -959,38 +1013,48 @@
         <v>87954.39999999999</v>
       </c>
       <c r="S6" s="1">
+        <v>1.725009</v>
+      </c>
+      <c r="T6" s="1">
+        <v>5.653761</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1733.78</v>
+      </c>
+      <c r="V6" s="1">
         <v>433.748924</v>
       </c>
-      <c r="T6" s="1">
+      <c r="W6" s="1">
         <v>8.31776</v>
       </c>
-      <c r="U6" s="1">
+      <c r="X6" s="1">
         <v>433.748924</v>
       </c>
-      <c r="V6" s="1">
+      <c r="Y6" s="1">
         <v>8.31776</v>
       </c>
-      <c r="W6" s="1">
+      <c r="Z6" s="1">
         <v>2.176032</v>
       </c>
-      <c r="X6" s="1">
+      <c r="AA6" s="1">
         <v>3336.89</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AB6" s="1">
         <v>2.176032</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AC6" s="1">
         <v>3336.89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="P1:Z1"/>
+  <mergeCells count="7">
+    <mergeCell ref="P1:AC1"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:CW201">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -1036,13 +1100,13 @@
         <v>1</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1050,92 +1114,92 @@
         <v>2</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -1143,14 +1207,14 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P6" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/Asus_Tuf-reference-cpu-onnxruntime_v1.20.1-default_config","details")</f>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
   <si>
     <t>Model</t>
   </si>
@@ -102,6 +102,12 @@
     <t>5.0-0001</t>
   </si>
   <si>
+    <t>5.0-0002</t>
+  </si>
+  <si>
+    <t>datacenter,edge/closed/MLCommons/RTX4090x1-nvidia-gpu-TensorRT-default_config</t>
+  </si>
+  <si>
     <t>datacenter,edge/closed/MLCommons/RTX4090x2-nvidia-gpu-TensorRT-default_config</t>
   </si>
   <si>
@@ -114,9 +120,15 @@
     <t>available</t>
   </si>
   <si>
+    <t>RTX4090x1</t>
+  </si>
+  <si>
     <t>RTX4090x2</t>
   </si>
   <si>
+    <t>13th Gen Intel(R) Core(TM) i9-13900K</t>
+  </si>
+  <si>
     <t>Intel(R) Xeon(R) w7-2495X</t>
   </si>
   <si>
@@ -147,7 +159,7 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>5.0-0002</t>
+    <t>5.0-0003</t>
   </si>
   <si>
     <t>edge/open/GATEOverflow/Asus_Tuf-reference-cpu-onnxruntime_v1.20.1-default_config/resnet50</t>
@@ -541,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW6"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -679,63 +691,116 @@
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/results/RTX4090x2-nvidia-gpu-TensorRT-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="O6" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/code","code")</f>
         <v>0</v>
       </c>
-      <c r="P6" s="1">
+      <c r="R6" s="1">
+        <v>637.538</v>
+      </c>
+      <c r="S6" s="1">
+        <v>862.338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/results/RTX4090x2-nvidia-gpu-TensorRT-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
         <v>73725.3</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q7" s="1">
         <v>87954.39999999999</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R7" s="1">
         <v>1414.97</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S7" s="1">
         <v>1733.78</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T7" s="1">
         <v>8.31776</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U7" s="1">
         <v>8.31776</v>
       </c>
     </row>
@@ -756,7 +821,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW6"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -808,11 +873,11 @@
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AC2" s="2"/>
     </row>
@@ -821,43 +886,43 @@
         <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>9</v>
@@ -868,43 +933,43 @@
         <v>2</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AA4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AC4" s="2" t="s">
         <v>11</v>
@@ -962,87 +1027,143 @@
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/results/RTX4090x2-nvidia-gpu-TensorRT-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="O6" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/code","code")</f>
         <v>0</v>
       </c>
-      <c r="P6" s="1">
+      <c r="S6" s="1">
+        <v>1.745667</v>
+      </c>
+      <c r="T6" s="1">
+        <v>10.91513</v>
+      </c>
+      <c r="U6" s="1">
+        <v>862.338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/results/RTX4090x2-nvidia-gpu-TensorRT-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
         <v>0.304746</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q7" s="1">
         <v>0.506621</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R7" s="1">
         <v>87954.39999999999</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S7" s="1">
         <v>1.725009</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T7" s="1">
         <v>5.653761</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U7" s="1">
         <v>1733.78</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V7" s="1">
         <v>433.748924</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W7" s="1">
         <v>8.31776</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X7" s="1">
         <v>433.748924</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y7" s="1">
         <v>8.31776</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z7" s="1">
         <v>2.176032</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA7" s="1">
         <v>3336.89</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB7" s="1">
         <v>2.176032</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AC7" s="1">
         <v>3336.89</v>
       </c>
     </row>
@@ -1100,10 +1221,10 @@
         <v>1</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>9</v>
@@ -1114,10 +1235,10 @@
         <v>2</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>11</v>
@@ -1164,10 +1285,10 @@
         <v>24</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>25</v>
@@ -1178,28 +1299,28 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -1207,14 +1328,14 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P6" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/Asus_Tuf-reference-cpu-onnxruntime_v1.20.1-default_config","details")</f>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -732,6 +732,12 @@
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/code","code")</f>
         <v>0</v>
       </c>
+      <c r="P6" s="1">
+        <v>35342.5</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>43783.8</v>
+      </c>
       <c r="R6" s="1">
         <v>637.538</v>
       </c>
@@ -1067,6 +1073,15 @@
       <c r="O6" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/code","code")</f>
         <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.277574</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.469362</v>
+      </c>
+      <c r="R6" s="1">
+        <v>43783.8</v>
       </c>
       <c r="S6" s="1">
         <v>1.745667</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="datacenter - closed" sheetId="1" r:id="rId1"/>
     <sheet name="edge - closed" sheetId="2" r:id="rId2"/>
-    <sheet name="edge - open" sheetId="3" r:id="rId3"/>
+    <sheet name="datacenter - open" sheetId="3" r:id="rId3"/>
+    <sheet name="edge - open" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="63">
   <si>
     <t>Model</t>
   </si>
@@ -105,33 +106,45 @@
     <t>5.0-0002</t>
   </si>
   <si>
+    <t>5.0-0003</t>
+  </si>
+  <si>
+    <t>datacenter,edge/closed/GATEOverflow/RTX4090x2-nvidia-gpu-TensorRT-default_config</t>
+  </si>
+  <si>
     <t>datacenter,edge/closed/MLCommons/RTX4090x1-nvidia-gpu-TensorRT-default_config</t>
   </si>
   <si>
     <t>datacenter,edge/closed/MLCommons/RTX4090x2-nvidia-gpu-TensorRT-default_config</t>
   </si>
   <si>
+    <t>availableGATEOverflow</t>
+  </si>
+  <si>
     <t>availableMLCommons</t>
   </si>
   <si>
+    <t>GATEOverflow</t>
+  </si>
+  <si>
     <t>MLCommons</t>
   </si>
   <si>
     <t>available</t>
   </si>
   <si>
+    <t>RTX4090x2</t>
+  </si>
+  <si>
     <t>RTX4090x1</t>
   </si>
   <si>
-    <t>RTX4090x2</t>
+    <t>Intel(R) Xeon(R) w7-2495X</t>
   </si>
   <si>
     <t>13th Gen Intel(R) Core(TM) i9-13900K</t>
   </si>
   <si>
-    <t>Intel(R) Xeon(R) w7-2495X</t>
-  </si>
-  <si>
     <t>NVIDIA GeForce RTX 4090</t>
   </si>
   <si>
@@ -153,24 +166,30 @@
     <t>Latency (ms)</t>
   </si>
   <si>
+    <t>stable-diffusion-xl</t>
+  </si>
+  <si>
     <t>UsedModel</t>
   </si>
   <si>
     <t>Accuracy</t>
   </si>
   <si>
-    <t>5.0-0003</t>
+    <t>5.0-0005</t>
+  </si>
+  <si>
+    <t>datacenter,edge/open/MLCommons/RTX4090x1-nvidia-gpu-TensorRT-default_config/stable-diffusion-xl</t>
+  </si>
+  <si>
+    <t>CLIP_SCORE: 31.263777194321154  FID_SCORE: 23.23140499788923</t>
+  </si>
+  <si>
+    <t>5.0-0004</t>
   </si>
   <si>
     <t>edge/open/GATEOverflow/Asus_Tuf-reference-cpu-onnxruntime_v1.20.1-default_config/resnet50</t>
   </si>
   <si>
-    <t>availableGATEOverflow</t>
-  </si>
-  <si>
-    <t>GATEOverflow</t>
-  </si>
-  <si>
     <t>junikki</t>
   </si>
   <si>
@@ -184,6 +203,9 @@
   </si>
   <si>
     <t>acc: 76.456</t>
+  </si>
+  <si>
+    <t>CLIP_SCORE: 31.26121644884348  FID_SCORE: 23.085608954777285</t>
   </si>
 </sst>
 </file>
@@ -553,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW7"/>
+  <dimension ref="A1:CW8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,58 +713,52 @@
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/GATEOverflow/results/RTX4090x2-nvidia-gpu-TensorRT-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="O6" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/code","code")</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>35342.5</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>43783.8</v>
-      </c>
-      <c r="R6" s="1">
-        <v>637.538</v>
-      </c>
-      <c r="S6" s="1">
-        <v>862.338</v>
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>8.28506</v>
+      </c>
+      <c r="U6" s="1">
+        <v>8.28506</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -750,41 +766,41 @@
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/results/RTX4090x2-nvidia-gpu-TensorRT-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="O7" s="2">
@@ -792,21 +808,80 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
+        <v>35342.5</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>43783.8</v>
+      </c>
+      <c r="R7" s="1">
+        <v>637.538</v>
+      </c>
+      <c r="S7" s="1">
+        <v>862.338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/results/RTX4090x2-nvidia-gpu-TensorRT-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
         <v>73725.3</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q8" s="1">
         <v>87954.39999999999</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R8" s="1">
         <v>1414.97</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S8" s="1">
         <v>1733.78</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T8" s="1">
         <v>8.31776</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U8" s="1">
         <v>8.31776</v>
       </c>
     </row>
@@ -827,7 +902,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW7"/>
+  <dimension ref="A1:CW8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -879,11 +954,11 @@
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AC2" s="2"/>
     </row>
@@ -892,43 +967,43 @@
         <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>9</v>
@@ -939,43 +1014,43 @@
         <v>2</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AA4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AC4" s="2" t="s">
         <v>11</v>
@@ -1033,64 +1108,64 @@
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/GATEOverflow/results/RTX4090x2-nvidia-gpu-TensorRT-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="O6" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/code","code")</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0.277574</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0.469362</v>
-      </c>
-      <c r="R6" s="1">
-        <v>43783.8</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1.745667</v>
-      </c>
-      <c r="T6" s="1">
-        <v>10.91513</v>
-      </c>
-      <c r="U6" s="1">
-        <v>862.338</v>
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>430.403815</v>
+      </c>
+      <c r="W6" s="1">
+        <v>8.28506</v>
+      </c>
+      <c r="X6" s="1">
+        <v>430.403815</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>8.28506</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1.030422</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>8266.190000000001</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1098,41 +1173,41 @@
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/results/RTX4090x2-nvidia-gpu-TensorRT-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="O7" s="2">
@@ -1140,45 +1215,110 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
+        <v>0.277574</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.469362</v>
+      </c>
+      <c r="R7" s="1">
+        <v>43783.8</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1.745667</v>
+      </c>
+      <c r="T7" s="1">
+        <v>10.91513</v>
+      </c>
+      <c r="U7" s="1">
+        <v>862.338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/results/RTX4090x2-nvidia-gpu-TensorRT-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
         <v>0.304746</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q8" s="1">
         <v>0.506621</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R8" s="1">
         <v>87954.39999999999</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S8" s="1">
         <v>1.725009</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T8" s="1">
         <v>5.653761</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U8" s="1">
         <v>1733.78</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V8" s="1">
         <v>433.748924</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W8" s="1">
         <v>8.31776</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X8" s="1">
         <v>433.748924</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y8" s="1">
         <v>8.31776</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z8" s="1">
         <v>2.176032</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA8" s="1">
         <v>3336.89</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB8" s="1">
         <v>2.176032</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC8" s="1">
         <v>3336.89</v>
       </c>
     </row>
@@ -1213,15 +1353,178 @@
     <col min="16" max="101" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:18">
       <c r="Q1" s="2"/>
       <c r="R1" s="2" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="Q2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="Q3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="Q4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.694931</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A6:CW201">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>mod(countunique($c$6:$c6), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CW8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="101" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="Q2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1230,36 +1533,52 @@
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22">
       <c r="Q3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="Q4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1300,10 +1619,10 @@
         <v>24</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>25</v>
@@ -1312,30 +1631,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:22">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -1343,14 +1662,14 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="P6" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/Asus_Tuf-reference-cpu-onnxruntime_v1.20.1-default_config","details")</f>
@@ -1370,10 +1689,111 @@
         <v>17.0229</v>
       </c>
     </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1424.917105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0.694931</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="R1:T1"/>
+  <mergeCells count="17">
+    <mergeCell ref="R1:V1"/>
     <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:CW201">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="66">
   <si>
     <t>Model</t>
   </si>
@@ -100,70 +100,79 @@
     <t>Code</t>
   </si>
   <si>
+    <t>5.0-0002</t>
+  </si>
+  <si>
+    <t>5.0-0003</t>
+  </si>
+  <si>
+    <t>5.0-0004</t>
+  </si>
+  <si>
+    <t>datacenter,edge/closed/GATEOverflow/RTX4090x2-nvidia-gpu-TensorRT-default_config</t>
+  </si>
+  <si>
+    <t>datacenter,edge/closed/MLCommons/RTX4090x1-nvidia-gpu-TensorRT-default_config</t>
+  </si>
+  <si>
+    <t>datacenter,edge/closed/MLCommons/RTX4090x2-nvidia-gpu-TensorRT-default_config</t>
+  </si>
+  <si>
+    <t>availableGATEOverflow</t>
+  </si>
+  <si>
+    <t>availableMLCommons</t>
+  </si>
+  <si>
+    <t>GATEOverflow</t>
+  </si>
+  <si>
+    <t>MLCommons</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>RTX4090x2</t>
+  </si>
+  <si>
+    <t>RTX4090x1</t>
+  </si>
+  <si>
+    <t>Intel(R) Xeon(R) w7-2495X</t>
+  </si>
+  <si>
+    <t>13th Gen Intel(R) Core(TM) i9-13900K</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 4090</t>
+  </si>
+  <si>
+    <t>TensorRT</t>
+  </si>
+  <si>
+    <t>bert-99</t>
+  </si>
+  <si>
+    <t>bert-99.9</t>
+  </si>
+  <si>
+    <t>SingleStream</t>
+  </si>
+  <si>
+    <t>MultiStream</t>
+  </si>
+  <si>
+    <t>Latency (ms)</t>
+  </si>
+  <si>
     <t>5.0-0001</t>
   </si>
   <si>
-    <t>5.0-0002</t>
-  </si>
-  <si>
-    <t>5.0-0003</t>
-  </si>
-  <si>
-    <t>datacenter,edge/closed/GATEOverflow/RTX4090x2-nvidia-gpu-TensorRT-default_config</t>
-  </si>
-  <si>
-    <t>datacenter,edge/closed/MLCommons/RTX4090x1-nvidia-gpu-TensorRT-default_config</t>
-  </si>
-  <si>
-    <t>datacenter,edge/closed/MLCommons/RTX4090x2-nvidia-gpu-TensorRT-default_config</t>
-  </si>
-  <si>
-    <t>availableGATEOverflow</t>
-  </si>
-  <si>
-    <t>availableMLCommons</t>
-  </si>
-  <si>
-    <t>GATEOverflow</t>
-  </si>
-  <si>
-    <t>MLCommons</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>RTX4090x2</t>
-  </si>
-  <si>
-    <t>RTX4090x1</t>
-  </si>
-  <si>
-    <t>Intel(R) Xeon(R) w7-2495X</t>
-  </si>
-  <si>
-    <t>13th Gen Intel(R) Core(TM) i9-13900K</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce RTX 4090</t>
-  </si>
-  <si>
-    <t>TensorRT</t>
-  </si>
-  <si>
-    <t>bert-99</t>
-  </si>
-  <si>
-    <t>bert-99.9</t>
-  </si>
-  <si>
-    <t>SingleStream</t>
-  </si>
-  <si>
-    <t>MultiStream</t>
-  </si>
-  <si>
-    <t>Latency (ms)</t>
+    <t>datacenter,edge/closed/GATEOverflow/RTX4090x1-nvidia-gpu-TensorRT-default_config</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 7950X 16-Core Processor</t>
   </si>
   <si>
     <t>stable-diffusion-xl</t>
@@ -175,16 +184,16 @@
     <t>Accuracy</t>
   </si>
   <si>
+    <t>5.0-0006</t>
+  </si>
+  <si>
+    <t>datacenter,edge/open/MLCommons/RTX4090x1-nvidia-gpu-TensorRT-default_config/stable-diffusion-xl</t>
+  </si>
+  <si>
+    <t>CLIP_SCORE: 31.263777194321154  FID_SCORE: 23.23140499788923</t>
+  </si>
+  <si>
     <t>5.0-0005</t>
-  </si>
-  <si>
-    <t>datacenter,edge/open/MLCommons/RTX4090x1-nvidia-gpu-TensorRT-default_config/stable-diffusion-xl</t>
-  </si>
-  <si>
-    <t>CLIP_SCORE: 31.263777194321154  FID_SCORE: 23.23140499788923</t>
-  </si>
-  <si>
-    <t>5.0-0004</t>
   </si>
   <si>
     <t>edge/open/GATEOverflow/Asus_Tuf-reference-cpu-onnxruntime_v1.20.1-default_config/resnet50</t>
@@ -902,7 +911,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW8"/>
+  <dimension ref="A1:CW9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1105,10 +1114,10 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>33</v>
@@ -1120,13 +1129,13 @@
         <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -1135,63 +1144,51 @@
         <v>42</v>
       </c>
       <c r="K6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/GATEOverflow/results/RTX4090x2-nvidia-gpu-TensorRT-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/GATEOverflow/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="O6" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/GATEOverflow/code","code")</f>
         <v>0</v>
       </c>
-      <c r="V6" s="1">
-        <v>430.403815</v>
-      </c>
-      <c r="W6" s="1">
-        <v>8.28506</v>
-      </c>
-      <c r="X6" s="1">
-        <v>430.403815</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>8.28506</v>
-      </c>
       <c r="Z6" s="1">
-        <v>1.030422</v>
+        <v>1.011897</v>
       </c>
       <c r="AA6" s="1">
-        <v>8266.190000000001</v>
+        <v>4130.61</v>
       </c>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -1200,45 +1197,45 @@
         <v>42</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>43</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/GATEOverflow/results/RTX4090x2-nvidia-gpu-TensorRT-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="O7" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/code","code")</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0.277574</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.469362</v>
-      </c>
-      <c r="R7" s="1">
-        <v>43783.8</v>
-      </c>
-      <c r="S7" s="1">
-        <v>1.745667</v>
-      </c>
-      <c r="T7" s="1">
-        <v>10.91513</v>
-      </c>
-      <c r="U7" s="1">
-        <v>862.338</v>
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>430.403815</v>
+      </c>
+      <c r="W7" s="1">
+        <v>8.28506</v>
+      </c>
+      <c r="X7" s="1">
+        <v>430.403815</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>8.28506</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1.030422</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>8266.190000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
@@ -1250,13 +1247,13 @@
         <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -1265,14 +1262,14 @@
         <v>42</v>
       </c>
       <c r="K8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/results/RTX4090x2-nvidia-gpu-TensorRT-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="O8" s="2">
@@ -1280,45 +1277,110 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
+        <v>0.277574</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.469362</v>
+      </c>
+      <c r="R8" s="1">
+        <v>43783.8</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1.745667</v>
+      </c>
+      <c r="T8" s="1">
+        <v>10.91513</v>
+      </c>
+      <c r="U8" s="1">
+        <v>862.338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/results/RTX4090x2-nvidia-gpu-TensorRT-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
         <v>0.304746</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q9" s="1">
         <v>0.506621</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R9" s="1">
         <v>87954.39999999999</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S9" s="1">
         <v>1.725009</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T9" s="1">
         <v>5.653761</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U9" s="1">
         <v>1733.78</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V9" s="1">
         <v>433.748924</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W9" s="1">
         <v>8.31776</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X9" s="1">
         <v>433.748924</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y9" s="1">
         <v>8.31776</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z9" s="1">
         <v>2.176032</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA9" s="1">
         <v>3336.89</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB9" s="1">
         <v>2.176032</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC9" s="1">
         <v>3336.89</v>
       </c>
     </row>
@@ -1364,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1424,10 +1486,10 @@
         <v>24</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>25</v>
@@ -1438,10 +1500,10 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
@@ -1475,10 +1537,10 @@
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P6" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
@@ -1534,7 +1596,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V2" s="2"/>
     </row>
@@ -1619,10 +1681,10 @@
         <v>24</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>25</v>
@@ -1633,10 +1695,10 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>33</v>
@@ -1648,13 +1710,13 @@
         <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -1662,14 +1724,14 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P6" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/Asus_Tuf-reference-cpu-onnxruntime_v1.20.1-default_config","details")</f>
@@ -1691,10 +1753,10 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>34</v>
@@ -1728,10 +1790,10 @@
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P7" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
@@ -1761,7 +1823,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P8" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="66">
   <si>
     <t>Model</t>
   </si>
@@ -100,6 +100,9 @@
     <t>Code</t>
   </si>
   <si>
+    <t>5.0-0001</t>
+  </si>
+  <si>
     <t>5.0-0002</t>
   </si>
   <si>
@@ -109,6 +112,9 @@
     <t>5.0-0004</t>
   </si>
   <si>
+    <t>datacenter,edge/closed/GATEOverflow/RTX4090x1-nvidia-gpu-TensorRT-default_config</t>
+  </si>
+  <si>
     <t>datacenter,edge/closed/GATEOverflow/RTX4090x2-nvidia-gpu-TensorRT-default_config</t>
   </si>
   <si>
@@ -133,10 +139,13 @@
     <t>available</t>
   </si>
   <si>
+    <t>RTX4090x1</t>
+  </si>
+  <si>
     <t>RTX4090x2</t>
   </si>
   <si>
-    <t>RTX4090x1</t>
+    <t>AMD Ryzen 9 7950X 16-Core Processor</t>
   </si>
   <si>
     <t>Intel(R) Xeon(R) w7-2495X</t>
@@ -164,15 +173,6 @@
   </si>
   <si>
     <t>Latency (ms)</t>
-  </si>
-  <si>
-    <t>5.0-0001</t>
-  </si>
-  <si>
-    <t>datacenter,edge/closed/GATEOverflow/RTX4090x1-nvidia-gpu-TensorRT-default_config</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 9 7950X 16-Core Processor</t>
   </si>
   <si>
     <t>stable-diffusion-xl</t>
@@ -584,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW8"/>
+  <dimension ref="A1:CW9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,41 +722,41 @@
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/GATEOverflow/results/RTX4090x2-nvidia-gpu-TensorRT-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/GATEOverflow/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="O6" s="2">
@@ -764,10 +764,10 @@
         <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>8.28506</v>
+        <v>4.17121</v>
       </c>
       <c r="U6" s="1">
-        <v>8.28506</v>
+        <v>4.17121</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -775,58 +775,52 @@
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/GATEOverflow/results/RTX4090x2-nvidia-gpu-TensorRT-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="O7" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/code","code")</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>35342.5</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>43783.8</v>
-      </c>
-      <c r="R7" s="1">
-        <v>637.538</v>
-      </c>
-      <c r="S7" s="1">
-        <v>862.338</v>
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>8.28506</v>
+      </c>
+      <c r="U7" s="1">
+        <v>8.28506</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -834,41 +828,41 @@
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/results/RTX4090x2-nvidia-gpu-TensorRT-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="O8" s="2">
@@ -876,21 +870,80 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
+        <v>35342.5</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>43783.8</v>
+      </c>
+      <c r="R8" s="1">
+        <v>637.538</v>
+      </c>
+      <c r="S8" s="1">
+        <v>862.338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/results/RTX4090x2-nvidia-gpu-TensorRT-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
         <v>73725.3</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q9" s="1">
         <v>87954.39999999999</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R9" s="1">
         <v>1414.97</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S9" s="1">
         <v>1733.78</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T9" s="1">
         <v>8.31776</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U9" s="1">
         <v>8.31776</v>
       </c>
     </row>
@@ -963,11 +1016,11 @@
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC2" s="2"/>
     </row>
@@ -976,43 +1029,43 @@
         <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>9</v>
@@ -1023,43 +1076,43 @@
         <v>2</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AA4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AC4" s="2" t="s">
         <v>11</v>
@@ -1114,40 +1167,40 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2">
@@ -1158,6 +1211,18 @@
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/GATEOverflow/code","code")</f>
         <v>0</v>
       </c>
+      <c r="V6" s="1">
+        <v>432.996963</v>
+      </c>
+      <c r="W6" s="1">
+        <v>4.17121</v>
+      </c>
+      <c r="X6" s="1">
+        <v>432.996963</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>4.17121</v>
+      </c>
       <c r="Z6" s="1">
         <v>1.011897</v>
       </c>
@@ -1167,40 +1232,40 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K7" s="2">
         <v>2</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2">
@@ -1232,40 +1297,40 @@
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2">
@@ -1297,40 +1362,40 @@
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K9" s="2">
         <v>2</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2">
@@ -1506,34 +1571,34 @@
         <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
@@ -1605,16 +1670,16 @@
         <v>1</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>9</v>
@@ -1625,16 +1690,16 @@
         <v>2</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>11</v>
@@ -1701,13 +1766,13 @@
         <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>60</v>
@@ -1759,34 +1824,34 @@
         <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1224,10 +1224,16 @@
         <v>4.17121</v>
       </c>
       <c r="Z6" s="1">
-        <v>1.011897</v>
+        <v>2.16583</v>
       </c>
       <c r="AA6" s="1">
-        <v>4130.61</v>
+        <v>1672.31</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>2.16583</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1672.31</v>
       </c>
     </row>
     <row r="7" spans="1:29">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -763,6 +763,12 @@
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/GATEOverflow/code","code")</f>
         <v>0</v>
       </c>
+      <c r="P6" s="1">
+        <v>35342.5</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>44411.1</v>
+      </c>
       <c r="T6" s="1">
         <v>4.17121</v>
       </c>
@@ -1210,6 +1216,15 @@
       <c r="O6" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/GATEOverflow/code","code")</f>
         <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.281736</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.45537</v>
+      </c>
+      <c r="R6" s="1">
+        <v>44411.1</v>
       </c>
       <c r="V6" s="1">
         <v>432.996963</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -769,6 +769,12 @@
       <c r="Q6" s="1">
         <v>44411.1</v>
       </c>
+      <c r="R6" s="1">
+        <v>637.535</v>
+      </c>
+      <c r="S6" s="1">
+        <v>869.415</v>
+      </c>
       <c r="T6" s="1">
         <v>4.17121</v>
       </c>
@@ -1225,6 +1231,15 @@
       </c>
       <c r="R6" s="1">
         <v>44411.1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1.699894</v>
+      </c>
+      <c r="T6" s="1">
+        <v>11.579734</v>
+      </c>
+      <c r="U6" s="1">
+        <v>869.415</v>
       </c>
       <c r="V6" s="1">
         <v>432.996963</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="69">
   <si>
     <t>Model</t>
   </si>
@@ -184,25 +184,34 @@
     <t>Accuracy</t>
   </si>
   <si>
+    <t>5.0-0007</t>
+  </si>
+  <si>
+    <t>datacenter,edge/open/MLCommons/RTX4090x1-nvidia-gpu-TensorRT-default_config/stable-diffusion-xl</t>
+  </si>
+  <si>
+    <t>CLIP_SCORE: 31.263777194321154  FID_SCORE: 23.23140499788923</t>
+  </si>
+  <si>
+    <t>5.0-0005</t>
+  </si>
+  <si>
     <t>5.0-0006</t>
   </si>
   <si>
-    <t>datacenter,edge/open/MLCommons/RTX4090x1-nvidia-gpu-TensorRT-default_config/stable-diffusion-xl</t>
-  </si>
-  <si>
-    <t>CLIP_SCORE: 31.263777194321154  FID_SCORE: 23.23140499788923</t>
-  </si>
-  <si>
-    <t>5.0-0005</t>
-  </si>
-  <si>
     <t>edge/open/GATEOverflow/Asus_Tuf-reference-cpu-onnxruntime_v1.20.1-default_config/resnet50</t>
   </si>
   <si>
+    <t>edge/open/GATEOverflow/Asus_Tuf-reference-gpu-onnxruntime_v1.20.1-cu118/resnet50</t>
+  </si>
+  <si>
     <t>junikki</t>
   </si>
   <si>
     <t>AMD Ryzen 7 3750H with Radeon Vega Mobile Gfx</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 1650</t>
   </si>
   <si>
     <t>onnxruntime v1.20.1</t>
@@ -1667,7 +1676,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW8"/>
+  <dimension ref="A1:CW9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1799,7 +1808,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>35</v>
@@ -1811,13 +1820,13 @@
         <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -1825,14 +1834,14 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P6" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/Asus_Tuf-reference-cpu-onnxruntime_v1.20.1-default_config","details")</f>
@@ -1854,77 +1863,109 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/Asus_Tuf-reference-gpu-onnxruntime_v1.20.1-cu118","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>58.733864</v>
+      </c>
+      <c r="S7" s="1">
+        <v>676.718092</v>
+      </c>
+      <c r="T7" s="1">
+        <v>16.7388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/code","code")</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1424.917105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
       <c r="O8" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="P8" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
@@ -1934,7 +1975,37 @@
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
-      <c r="V8" s="1">
+      <c r="U8" s="1">
+        <v>1424.917105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
         <v>0.694931</v>
       </c>
     </row>
@@ -1943,20 +2014,20 @@
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:V2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:CW201">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -841,7 +841,7 @@
         <v>8.28506</v>
       </c>
       <c r="U7" s="1">
-        <v>8.28506</v>
+        <v>8.308759999999999</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1328,10 +1328,10 @@
         <v>8.28506</v>
       </c>
       <c r="X7" s="1">
-        <v>430.403815</v>
+        <v>431.124707</v>
       </c>
       <c r="Y7" s="1">
-        <v>8.28506</v>
+        <v>8.308759999999999</v>
       </c>
       <c r="Z7" s="1">
         <v>1.030422</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1339,6 +1339,12 @@
       <c r="AA7" s="1">
         <v>8266.190000000001</v>
       </c>
+      <c r="AB7" s="1">
+        <v>2.17236</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>3339.71</v>
+      </c>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="2" t="s">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -837,6 +837,12 @@
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/GATEOverflow/code","code")</f>
         <v>0</v>
       </c>
+      <c r="P7" s="1">
+        <v>73725.3</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>87921.10000000001</v>
+      </c>
       <c r="T7" s="1">
         <v>8.28506</v>
       </c>
@@ -1320,6 +1326,15 @@
       <c r="O7" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/closed/GATEOverflow/code","code")</f>
         <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.303503</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.506056</v>
+      </c>
+      <c r="R7" s="1">
+        <v>87921.10000000001</v>
       </c>
       <c r="V7" s="1">
         <v>430.403815</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="396">
   <si>
     <t>Model</t>
   </si>
@@ -184,19 +184,262 @@
     <t>Accuracy</t>
   </si>
   <si>
+    <t>5.0-0088</t>
+  </si>
+  <si>
+    <t>datacenter,edge/open/MLCommons/RTX4090x1-nvidia-gpu-TensorRT-default_config/stable-diffusion-xl</t>
+  </si>
+  <si>
+    <t>CLIP_SCORE: 31.263777194321154  FID_SCORE: 23.23140499788923</t>
+  </si>
+  <si>
+    <t>5.0-0005</t>
+  </si>
+  <si>
+    <t>5.0-0006</t>
+  </si>
+  <si>
     <t>5.0-0007</t>
   </si>
   <si>
-    <t>datacenter,edge/open/MLCommons/RTX4090x1-nvidia-gpu-TensorRT-default_config/stable-diffusion-xl</t>
-  </si>
-  <si>
-    <t>CLIP_SCORE: 31.263777194321154  FID_SCORE: 23.23140499788923</t>
-  </si>
-  <si>
-    <t>5.0-0005</t>
-  </si>
-  <si>
-    <t>5.0-0006</t>
+    <t>5.0-0008</t>
+  </si>
+  <si>
+    <t>5.0-0009</t>
+  </si>
+  <si>
+    <t>5.0-0010</t>
+  </si>
+  <si>
+    <t>5.0-0011</t>
+  </si>
+  <si>
+    <t>5.0-0012</t>
+  </si>
+  <si>
+    <t>5.0-0013</t>
+  </si>
+  <si>
+    <t>5.0-0014</t>
+  </si>
+  <si>
+    <t>5.0-0015</t>
+  </si>
+  <si>
+    <t>5.0-0016</t>
+  </si>
+  <si>
+    <t>5.0-0017</t>
+  </si>
+  <si>
+    <t>5.0-0018</t>
+  </si>
+  <si>
+    <t>5.0-0019</t>
+  </si>
+  <si>
+    <t>5.0-0020</t>
+  </si>
+  <si>
+    <t>5.0-0021</t>
+  </si>
+  <si>
+    <t>5.0-0022</t>
+  </si>
+  <si>
+    <t>5.0-0023</t>
+  </si>
+  <si>
+    <t>5.0-0024</t>
+  </si>
+  <si>
+    <t>5.0-0025</t>
+  </si>
+  <si>
+    <t>5.0-0026</t>
+  </si>
+  <si>
+    <t>5.0-0027</t>
+  </si>
+  <si>
+    <t>5.0-0028</t>
+  </si>
+  <si>
+    <t>5.0-0029</t>
+  </si>
+  <si>
+    <t>5.0-0030</t>
+  </si>
+  <si>
+    <t>5.0-0031</t>
+  </si>
+  <si>
+    <t>5.0-0032</t>
+  </si>
+  <si>
+    <t>5.0-0033</t>
+  </si>
+  <si>
+    <t>5.0-0034</t>
+  </si>
+  <si>
+    <t>5.0-0035</t>
+  </si>
+  <si>
+    <t>5.0-0036</t>
+  </si>
+  <si>
+    <t>5.0-0037</t>
+  </si>
+  <si>
+    <t>5.0-0038</t>
+  </si>
+  <si>
+    <t>5.0-0039</t>
+  </si>
+  <si>
+    <t>5.0-0040</t>
+  </si>
+  <si>
+    <t>5.0-0041</t>
+  </si>
+  <si>
+    <t>5.0-0042</t>
+  </si>
+  <si>
+    <t>5.0-0043</t>
+  </si>
+  <si>
+    <t>5.0-0044</t>
+  </si>
+  <si>
+    <t>5.0-0045</t>
+  </si>
+  <si>
+    <t>5.0-0046</t>
+  </si>
+  <si>
+    <t>5.0-0047</t>
+  </si>
+  <si>
+    <t>5.0-0048</t>
+  </si>
+  <si>
+    <t>5.0-0049</t>
+  </si>
+  <si>
+    <t>5.0-0050</t>
+  </si>
+  <si>
+    <t>5.0-0051</t>
+  </si>
+  <si>
+    <t>5.0-0052</t>
+  </si>
+  <si>
+    <t>5.0-0053</t>
+  </si>
+  <si>
+    <t>5.0-0054</t>
+  </si>
+  <si>
+    <t>5.0-0055</t>
+  </si>
+  <si>
+    <t>5.0-0056</t>
+  </si>
+  <si>
+    <t>5.0-0057</t>
+  </si>
+  <si>
+    <t>5.0-0058</t>
+  </si>
+  <si>
+    <t>5.0-0059</t>
+  </si>
+  <si>
+    <t>5.0-0060</t>
+  </si>
+  <si>
+    <t>5.0-0061</t>
+  </si>
+  <si>
+    <t>5.0-0062</t>
+  </si>
+  <si>
+    <t>5.0-0063</t>
+  </si>
+  <si>
+    <t>5.0-0064</t>
+  </si>
+  <si>
+    <t>5.0-0065</t>
+  </si>
+  <si>
+    <t>5.0-0066</t>
+  </si>
+  <si>
+    <t>5.0-0067</t>
+  </si>
+  <si>
+    <t>5.0-0068</t>
+  </si>
+  <si>
+    <t>5.0-0069</t>
+  </si>
+  <si>
+    <t>5.0-0070</t>
+  </si>
+  <si>
+    <t>5.0-0071</t>
+  </si>
+  <si>
+    <t>5.0-0072</t>
+  </si>
+  <si>
+    <t>5.0-0073</t>
+  </si>
+  <si>
+    <t>5.0-0074</t>
+  </si>
+  <si>
+    <t>5.0-0075</t>
+  </si>
+  <si>
+    <t>5.0-0076</t>
+  </si>
+  <si>
+    <t>5.0-0077</t>
+  </si>
+  <si>
+    <t>5.0-0078</t>
+  </si>
+  <si>
+    <t>5.0-0079</t>
+  </si>
+  <si>
+    <t>5.0-0080</t>
+  </si>
+  <si>
+    <t>5.0-0081</t>
+  </si>
+  <si>
+    <t>5.0-0082</t>
+  </si>
+  <si>
+    <t>5.0-0083</t>
+  </si>
+  <si>
+    <t>5.0-0084</t>
+  </si>
+  <si>
+    <t>5.0-0085</t>
+  </si>
+  <si>
+    <t>5.0-0086</t>
+  </si>
+  <si>
+    <t>5.0-0087</t>
   </si>
   <si>
     <t>edge/open/GATEOverflow/Asus_Tuf-reference-cpu-onnxruntime_v1.20.1-default_config/resnet50</t>
@@ -205,22 +448,760 @@
     <t>edge/open/GATEOverflow/Asus_Tuf-reference-gpu-onnxruntime_v1.20.1-cu118/resnet50</t>
   </si>
   <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/efficientnet-fp32-lite0</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/efficientnet-fp32-lite1</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/efficientnet-fp32-lite2</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/efficientnet-fp32-lite3</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/efficientnet-fp32-lite4</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/efficientnet-int8-lite0</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/efficientnet-int8-lite1</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/efficientnet-int8-lite2</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/efficientnet-int8-lite3</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/efficientnet-int8-lite4</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_float-0.25-128</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_float-0.25-160</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_float-0.25-192</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_float-0.25-224</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_float-0.5-128</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_float-0.5-160</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_float-0.5-192</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_float-0.5-224</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_float-0.75-128</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_float-0.75-160</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_float-0.75-192</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_float-0.75-224</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_float-1.0-128</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_float-1.0-160</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_float-1.0-192</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_float-1.0-224</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_uint8-0.25-128</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_uint8-0.25-160</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_uint8-0.25-192</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_uint8-0.25-224</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_uint8-0.5-128</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_uint8-0.5-160</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_uint8-0.5-192</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_uint8-0.5-224</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_uint8-0.75-128</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_uint8-0.75-160</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_uint8-0.75-192</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_uint8-0.75-224</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_uint8-1.0-128</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_uint8-1.0-160</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_uint8-1.0-192</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v1-precision_uint8-1.0-224</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_float-0.35-128</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_float-0.35-160</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_float-0.35-192</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_float-0.35-224</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_float-0.5-128</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_float-0.5-160</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_float-0.5-192</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_float-0.5-224</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_float-0.75-128</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_float-0.75-160</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_float-0.75-192</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_float-0.75-224</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_float-1.0-128</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_float-1.0-160</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_float-1.0-192</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_float-1.0-224</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_uint8-0.35-128</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_uint8-0.35-160</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_uint8-0.35-192</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_uint8-0.35-224</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_uint8-0.5-128</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_uint8-0.5-160</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_uint8-0.5-192</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_uint8-0.5-224</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_uint8-0.75-128</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_uint8-0.75-160</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_uint8-0.75-192</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_uint8-0.75-224</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_uint8-1.0-128</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_uint8-1.0-160</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_uint8-1.0-192</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v2-precision_uint8-1.0-224</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v3-precision_float-large-224</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v3-precision_float-large-minimalistic-224</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v3-precision_float-small-224</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v3-precision_float-small-minimalistic-224</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v3-precision_uint8-large-224</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v3-precision_uint8-large-minimalistic-224</t>
+  </si>
+  <si>
+    <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v3-precision_uint8-small-224</t>
+  </si>
+  <si>
     <t>junikki</t>
   </si>
   <si>
+    <t>mini</t>
+  </si>
+  <si>
     <t>AMD Ryzen 7 3750H with Radeon Vega Mobile Gfx</t>
   </si>
   <si>
+    <t>AMD Ryzen 5 5560U with Radeon Graphics</t>
+  </si>
+  <si>
     <t>NVIDIA GeForce GTX 1650</t>
   </si>
   <si>
     <t>onnxruntime v1.20.1</t>
   </si>
   <si>
+    <t>tflite vmaster</t>
+  </si>
+  <si>
     <t>resnet50</t>
   </si>
   <si>
+    <t>efficientnet-fp32-lite0</t>
+  </si>
+  <si>
+    <t>efficientnet-fp32-lite1</t>
+  </si>
+  <si>
+    <t>efficientnet-fp32-lite2</t>
+  </si>
+  <si>
+    <t>efficientnet-fp32-lite3</t>
+  </si>
+  <si>
+    <t>efficientnet-fp32-lite4</t>
+  </si>
+  <si>
+    <t>efficientnet-int8-lite0</t>
+  </si>
+  <si>
+    <t>efficientnet-int8-lite1</t>
+  </si>
+  <si>
+    <t>efficientnet-int8-lite2</t>
+  </si>
+  <si>
+    <t>efficientnet-int8-lite3</t>
+  </si>
+  <si>
+    <t>efficientnet-int8-lite4</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_float-0.25-128</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_float-0.25-160</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_float-0.25-192</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_float-0.25-224</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_float-0.5-128</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_float-0.5-160</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_float-0.5-192</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_float-0.5-224</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_float-0.75-128</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_float-0.75-160</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_float-0.75-192</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_float-0.75-224</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_float-1.0-128</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_float-1.0-160</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_float-1.0-192</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_float-1.0-224</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_uint8-0.25-128</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_uint8-0.25-160</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_uint8-0.25-192</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_uint8-0.25-224</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_uint8-0.5-128</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_uint8-0.5-160</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_uint8-0.5-192</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_uint8-0.5-224</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_uint8-0.75-128</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_uint8-0.75-160</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_uint8-0.75-192</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_uint8-0.75-224</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_uint8-1.0-128</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_uint8-1.0-160</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_uint8-1.0-192</t>
+  </si>
+  <si>
+    <t>mobilenet-v1-precision_uint8-1.0-224</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_float-0.35-128</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_float-0.35-160</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_float-0.35-192</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_float-0.35-224</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_float-0.5-128</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_float-0.5-160</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_float-0.5-192</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_float-0.5-224</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_float-0.75-128</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_float-0.75-160</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_float-0.75-192</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_float-0.75-224</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_float-1.0-128</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_float-1.0-160</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_float-1.0-192</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_float-1.0-224</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_uint8-0.35-128</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_uint8-0.35-160</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_uint8-0.35-192</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_uint8-0.35-224</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_uint8-0.5-128</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_uint8-0.5-160</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_uint8-0.5-192</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_uint8-0.5-224</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_uint8-0.75-128</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_uint8-0.75-160</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_uint8-0.75-192</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_uint8-0.75-224</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_uint8-1.0-128</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_uint8-1.0-160</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_uint8-1.0-192</t>
+  </si>
+  <si>
+    <t>mobilenet-v2-precision_uint8-1.0-224</t>
+  </si>
+  <si>
+    <t>mobilenet-v3-precision_float-large-224</t>
+  </si>
+  <si>
+    <t>mobilenet-v3-precision_float-large-minimalistic-224</t>
+  </si>
+  <si>
+    <t>mobilenet-v3-precision_float-small-224</t>
+  </si>
+  <si>
+    <t>mobilenet-v3-precision_float-small-minimalistic-224</t>
+  </si>
+  <si>
+    <t>mobilenet-v3-precision_uint8-large-224</t>
+  </si>
+  <si>
+    <t>mobilenet-v3-precision_uint8-large-minimalistic-224</t>
+  </si>
+  <si>
+    <t>mobilenet-v3-precision_uint8-small-224</t>
+  </si>
+  <si>
     <t>acc: 76.456</t>
+  </si>
+  <si>
+    <t>acc: 75.068</t>
+  </si>
+  <si>
+    <t>acc: 76.642</t>
+  </si>
+  <si>
+    <t>acc: 77.542</t>
+  </si>
+  <si>
+    <t>acc: 79.268</t>
+  </si>
+  <si>
+    <t>acc: 80.676</t>
+  </si>
+  <si>
+    <t>acc: 71.250</t>
+  </si>
+  <si>
+    <t>acc: 74.046</t>
+  </si>
+  <si>
+    <t>acc: 74.158</t>
+  </si>
+  <si>
+    <t>acc: 76.364</t>
+  </si>
+  <si>
+    <t>acc: 78.544</t>
+  </si>
+  <si>
+    <t>acc: 44.116</t>
+  </si>
+  <si>
+    <t>acc: 47.808</t>
+  </si>
+  <si>
+    <t>acc: 49.478</t>
+  </si>
+  <si>
+    <t>acc: 51.848</t>
+  </si>
+  <si>
+    <t>acc: 57.918</t>
+  </si>
+  <si>
+    <t>acc: 60.842</t>
+  </si>
+  <si>
+    <t>acc: 63.244</t>
+  </si>
+  <si>
+    <t>acc: 64.346</t>
+  </si>
+  <si>
+    <t>acc: 63.716</t>
+  </si>
+  <si>
+    <t>acc: 66.384</t>
+  </si>
+  <si>
+    <t>acc: 68.242</t>
+  </si>
+  <si>
+    <t>acc: 69.262</t>
+  </si>
+  <si>
+    <t>acc: 66.604</t>
+  </si>
+  <si>
+    <t>acc: 69.106</t>
+  </si>
+  <si>
+    <t>acc: 70.626</t>
+  </si>
+  <si>
+    <t>acc: 71.678</t>
+  </si>
+  <si>
+    <t>acc: 42.310</t>
+  </si>
+  <si>
+    <t>acc: 45.506</t>
+  </si>
+  <si>
+    <t>acc: 48.074</t>
+  </si>
+  <si>
+    <t>acc: 50.224</t>
+  </si>
+  <si>
+    <t>acc: 56.674</t>
+  </si>
+  <si>
+    <t>acc: 59.480</t>
+  </si>
+  <si>
+    <t>acc: 61.484</t>
+  </si>
+  <si>
+    <t>acc: 62.308</t>
+  </si>
+  <si>
+    <t>acc: 58.398</t>
+  </si>
+  <si>
+    <t>acc: 64.126</t>
+  </si>
+  <si>
+    <t>acc: 67.198</t>
+  </si>
+  <si>
+    <t>acc: 68.138</t>
+  </si>
+  <si>
+    <t>acc: 64.794</t>
+  </si>
+  <si>
+    <t>acc: 68.272</t>
+  </si>
+  <si>
+    <t>acc: 70.022</t>
+  </si>
+  <si>
+    <t>acc: 70.772</t>
+  </si>
+  <si>
+    <t>acc: 52.172</t>
+  </si>
+  <si>
+    <t>acc: 56.988</t>
+  </si>
+  <si>
+    <t>acc: 59.324</t>
+  </si>
+  <si>
+    <t>acc: 60.974</t>
+  </si>
+  <si>
+    <t>acc: 58.402</t>
+  </si>
+  <si>
+    <t>acc: 61.668</t>
+  </si>
+  <si>
+    <t>acc: 64.282</t>
+  </si>
+  <si>
+    <t>acc: 65.750</t>
+  </si>
+  <si>
+    <t>acc: 64.038</t>
+  </si>
+  <si>
+    <t>acc: 66.750</t>
+  </si>
+  <si>
+    <t>acc: 68.834</t>
+  </si>
+  <si>
+    <t>acc: 70.122</t>
+  </si>
+  <si>
+    <t>acc: 66.036</t>
+  </si>
+  <si>
+    <t>acc: 69.016</t>
+  </si>
+  <si>
+    <t>acc: 70.740</t>
+  </si>
+  <si>
+    <t>acc: 71.770</t>
+  </si>
+  <si>
+    <t>acc: 49.224</t>
+  </si>
+  <si>
+    <t>acc: 54.586</t>
+  </si>
+  <si>
+    <t>acc: 56.602</t>
+  </si>
+  <si>
+    <t>acc: 58.552</t>
+  </si>
+  <si>
+    <t>acc: 55.458</t>
+  </si>
+  <si>
+    <t>acc: 59.204</t>
+  </si>
+  <si>
+    <t>acc: 61.932</t>
+  </si>
+  <si>
+    <t>acc: 63.664</t>
+  </si>
+  <si>
+    <t>acc: 62.032</t>
+  </si>
+  <si>
+    <t>acc: 64.986</t>
+  </si>
+  <si>
+    <t>acc: 67.458</t>
+  </si>
+  <si>
+    <t>acc: 68.720</t>
+  </si>
+  <si>
+    <t>acc: 63.616</t>
+  </si>
+  <si>
+    <t>acc: 67.770</t>
+  </si>
+  <si>
+    <t>acc: 69.640</t>
+  </si>
+  <si>
+    <t>acc: 70.622</t>
+  </si>
+  <si>
+    <t>acc: 75.760</t>
+  </si>
+  <si>
+    <t>acc: 72.678</t>
+  </si>
+  <si>
+    <t>acc: 68.336</t>
+  </si>
+  <si>
+    <t>acc: 63.332</t>
+  </si>
+  <si>
+    <t>acc: 72.896</t>
+  </si>
+  <si>
+    <t>acc: 70.428</t>
+  </si>
+  <si>
+    <t>acc: 64.380</t>
   </si>
   <si>
     <t>CLIP_SCORE: 31.26121644884348  FID_SCORE: 23.085608954777285</t>
@@ -1697,7 +2678,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW9"/>
+  <dimension ref="A1:CW90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1829,7 +2810,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>35</v>
@@ -1841,13 +2822,13 @@
         <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -1855,14 +2836,14 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>67</v>
+        <v>313</v>
       </c>
       <c r="P6" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/Asus_Tuf-reference-cpu-onnxruntime_v1.20.1-default_config","details")</f>
@@ -1887,7 +2868,7 @@
         <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>35</v>
@@ -1899,32 +2880,32 @@
         <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>67</v>
+        <v>313</v>
       </c>
       <c r="P7" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/Asus_Tuf-reference-gpu-onnxruntime_v1.20.1-cu118","details")</f>
@@ -1946,87 +2927,4785 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>68</v>
+        <v>314</v>
       </c>
       <c r="P8" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/code","code")</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
-        <v>1424.917105</v>
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>10.155453</v>
+      </c>
+      <c r="S8" s="1">
+        <v>93.491688</v>
+      </c>
+      <c r="T8" s="1">
+        <v>101.597</v>
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="O9" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="P9" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>15.933188</v>
+      </c>
+      <c r="S9" s="1">
+        <v>135.641432</v>
+      </c>
+      <c r="T9" s="1">
+        <v>64.6156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="P10" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>21.463225</v>
+      </c>
+      <c r="S10" s="1">
+        <v>173.266136</v>
+      </c>
+      <c r="T10" s="1">
+        <v>46.7733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="P11" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>35.013938</v>
+      </c>
+      <c r="S11" s="1">
+        <v>283.317056</v>
+      </c>
+      <c r="T11" s="1">
+        <v>28.6886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="P12" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>62.19403</v>
+      </c>
+      <c r="S12" s="1">
+        <v>501.028104</v>
+      </c>
+      <c r="T12" s="1">
+        <v>16.1355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="P13" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>9.903153</v>
+      </c>
+      <c r="S13" s="1">
+        <v>82.88908000000001</v>
+      </c>
+      <c r="T13" s="1">
+        <v>101.981</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P14" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>14.555794</v>
+      </c>
+      <c r="S14" s="1">
+        <v>116.824112</v>
+      </c>
+      <c r="T14" s="1">
+        <v>68.79949999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="P15" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>19.814493</v>
+      </c>
+      <c r="S15" s="1">
+        <v>159.355944</v>
+      </c>
+      <c r="T15" s="1">
+        <v>50.5364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="P16" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>30.502888</v>
+      </c>
+      <c r="S16" s="1">
+        <v>244.6886</v>
+      </c>
+      <c r="T16" s="1">
+        <v>32.8222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="P17" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>53.181045</v>
+      </c>
+      <c r="S17" s="1">
+        <v>426.347648</v>
+      </c>
+      <c r="T17" s="1">
+        <v>18.8226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="P18" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0.374166</v>
+      </c>
+      <c r="S18" s="1">
+        <v>3.044176</v>
+      </c>
+      <c r="T18" s="1">
+        <v>2738.88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="P19" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.551296</v>
+      </c>
+      <c r="S19" s="1">
+        <v>4.958528</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1834.59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="P20" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0.787167</v>
+      </c>
+      <c r="S20" s="1">
+        <v>6.39736</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1278.87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="P21" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1.061663</v>
+      </c>
+      <c r="S21" s="1">
+        <v>8.619024</v>
+      </c>
+      <c r="T21" s="1">
+        <v>947.051</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="P22" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>1.141636</v>
+      </c>
+      <c r="S22" s="1">
+        <v>9.457736000000001</v>
+      </c>
+      <c r="T22" s="1">
+        <v>883.58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="P23" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>1.695863</v>
+      </c>
+      <c r="S23" s="1">
+        <v>13.742352</v>
+      </c>
+      <c r="T23" s="1">
+        <v>593.808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="P24" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>2.459423</v>
+      </c>
+      <c r="S24" s="1">
+        <v>19.913984</v>
+      </c>
+      <c r="T24" s="1">
+        <v>408.981</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="P25" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>3.312529</v>
+      </c>
+      <c r="S25" s="1">
+        <v>27.365224</v>
+      </c>
+      <c r="T25" s="1">
+        <v>303.797</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="P26" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>2.522357</v>
+      </c>
+      <c r="S26" s="1">
+        <v>20.570016</v>
+      </c>
+      <c r="T26" s="1">
+        <v>399.361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="P27" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>3.645963</v>
+      </c>
+      <c r="S27" s="1">
+        <v>29.45828</v>
+      </c>
+      <c r="T27" s="1">
+        <v>275.686</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="P28" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>5.272194</v>
+      </c>
+      <c r="S28" s="1">
+        <v>42.560872</v>
+      </c>
+      <c r="T28" s="1">
+        <v>190.511</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="P29" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>7.071036</v>
+      </c>
+      <c r="S29" s="1">
+        <v>56.97116</v>
+      </c>
+      <c r="T29" s="1">
+        <v>141.868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="P30" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>4.411687</v>
+      </c>
+      <c r="S30" s="1">
+        <v>35.6512</v>
+      </c>
+      <c r="T30" s="1">
+        <v>227.665</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="P31" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>6.449183</v>
+      </c>
+      <c r="S31" s="1">
+        <v>52.122616</v>
+      </c>
+      <c r="T31" s="1">
+        <v>155.682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="P32" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>9.117578999999999</v>
+      </c>
+      <c r="S32" s="1">
+        <v>74.076728</v>
+      </c>
+      <c r="T32" s="1">
+        <v>110.098</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="P33" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>12.13452</v>
+      </c>
+      <c r="S33" s="1">
+        <v>97.766344</v>
+      </c>
+      <c r="T33" s="1">
+        <v>82.6324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="P34" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0.602004</v>
+      </c>
+      <c r="S34" s="1">
+        <v>4.843416</v>
+      </c>
+      <c r="T34" s="1">
+        <v>1679.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="P35" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0.917361</v>
+      </c>
+      <c r="S35" s="1">
+        <v>7.471872</v>
+      </c>
+      <c r="T35" s="1">
+        <v>1093.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="P36" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>1.3034</v>
+      </c>
+      <c r="S36" s="1">
+        <v>10.483072</v>
+      </c>
+      <c r="T36" s="1">
+        <v>772.356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="P37" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>1.776189</v>
+      </c>
+      <c r="S37" s="1">
+        <v>14.278248</v>
+      </c>
+      <c r="T37" s="1">
+        <v>565.534</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="P38" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>1.77291</v>
+      </c>
+      <c r="S38" s="1">
+        <v>14.243616</v>
+      </c>
+      <c r="T38" s="1">
+        <v>566.3200000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="P39" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>2.732242</v>
+      </c>
+      <c r="S39" s="1">
+        <v>21.969688</v>
+      </c>
+      <c r="T39" s="1">
+        <v>367.145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="P40" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>3.866337</v>
+      </c>
+      <c r="S40" s="1">
+        <v>31.005008</v>
+      </c>
+      <c r="T40" s="1">
+        <v>259.609</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="P41" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>5.294345</v>
+      </c>
+      <c r="S41" s="1">
+        <v>42.479368</v>
+      </c>
+      <c r="T41" s="1">
+        <v>189.453</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="P42" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>3.59282</v>
+      </c>
+      <c r="S42" s="1">
+        <v>28.84648</v>
+      </c>
+      <c r="T42" s="1">
+        <v>278.998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="P43" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>5.533599</v>
+      </c>
+      <c r="S43" s="1">
+        <v>44.417088</v>
+      </c>
+      <c r="T43" s="1">
+        <v>181.052</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="P44" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <v>7.809111</v>
+      </c>
+      <c r="S44" s="1">
+        <v>62.756872</v>
+      </c>
+      <c r="T44" s="1">
+        <v>128.284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="P45" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>10.704219</v>
+      </c>
+      <c r="S45" s="1">
+        <v>85.874584</v>
+      </c>
+      <c r="T45" s="1">
+        <v>93.5108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="P46" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <v>6.051126</v>
+      </c>
+      <c r="S46" s="1">
+        <v>48.681672</v>
+      </c>
+      <c r="T46" s="1">
+        <v>165.474</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="P47" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>9.339560000000001</v>
+      </c>
+      <c r="S47" s="1">
+        <v>75.12662400000001</v>
+      </c>
+      <c r="T47" s="1">
+        <v>107.28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="P48" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <v>13.183073</v>
+      </c>
+      <c r="S48" s="1">
+        <v>105.922776</v>
+      </c>
+      <c r="T48" s="1">
+        <v>75.968</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="P49" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <v>18.118122</v>
+      </c>
+      <c r="S49" s="1">
+        <v>145.285832</v>
+      </c>
+      <c r="T49" s="1">
+        <v>55.2553</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="P50" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0.707821</v>
+      </c>
+      <c r="S50" s="1">
+        <v>5.791088</v>
+      </c>
+      <c r="T50" s="1">
+        <v>1431.38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I51" s="2">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="P51" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R51" s="1">
+        <v>0.980432</v>
+      </c>
+      <c r="S51" s="1">
+        <v>7.971408</v>
+      </c>
+      <c r="T51" s="1">
+        <v>1028.45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="P52" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R52" s="1">
+        <v>1.371012</v>
+      </c>
+      <c r="S52" s="1">
+        <v>11.145784</v>
+      </c>
+      <c r="T52" s="1">
+        <v>736.01</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="P53" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
+        <v>1.806992</v>
+      </c>
+      <c r="S53" s="1">
+        <v>14.640888</v>
+      </c>
+      <c r="T53" s="1">
+        <v>557.649</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="P54" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <v>0.996077</v>
+      </c>
+      <c r="S54" s="1">
+        <v>8.127304000000001</v>
+      </c>
+      <c r="T54" s="1">
+        <v>1012.14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="P55" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R55" s="1">
+        <v>1.393851</v>
+      </c>
+      <c r="S55" s="1">
+        <v>11.323472</v>
+      </c>
+      <c r="T55" s="1">
+        <v>723.655</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="P56" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R56" s="1">
+        <v>1.968546</v>
+      </c>
+      <c r="S56" s="1">
+        <v>15.9702</v>
+      </c>
+      <c r="T56" s="1">
+        <v>511.36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="P57" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R57" s="1">
+        <v>2.608967</v>
+      </c>
+      <c r="S57" s="1">
+        <v>21.119272</v>
+      </c>
+      <c r="T57" s="1">
+        <v>385.921</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1</v>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="P58" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R58" s="1">
+        <v>1.991042</v>
+      </c>
+      <c r="S58" s="1">
+        <v>16.131712</v>
+      </c>
+      <c r="T58" s="1">
+        <v>505.64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="P59" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R59" s="1">
+        <v>2.843227</v>
+      </c>
+      <c r="S59" s="1">
+        <v>23.082752</v>
+      </c>
+      <c r="T59" s="1">
+        <v>353.881</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="P60" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R60" s="1">
+        <v>4.068545</v>
+      </c>
+      <c r="S60" s="1">
+        <v>33.0602</v>
+      </c>
+      <c r="T60" s="1">
+        <v>246.853</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="P61" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R61" s="1">
+        <v>5.554801</v>
+      </c>
+      <c r="S61" s="1">
+        <v>44.82284</v>
+      </c>
+      <c r="T61" s="1">
+        <v>180.917</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="P62" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R62" s="1">
+        <v>2.714503</v>
+      </c>
+      <c r="S62" s="1">
+        <v>22.003784</v>
+      </c>
+      <c r="T62" s="1">
+        <v>370.838</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I63" s="2">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="P63" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R63" s="1">
+        <v>3.828552</v>
+      </c>
+      <c r="S63" s="1">
+        <v>31.080464</v>
+      </c>
+      <c r="T63" s="1">
+        <v>262.616</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I64" s="2">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="P64" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R64" s="1">
+        <v>5.559482</v>
+      </c>
+      <c r="S64" s="1">
+        <v>45.112848</v>
+      </c>
+      <c r="T64" s="1">
+        <v>180.653</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1</v>
+      </c>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="P65" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R65" s="1">
+        <v>7.371498</v>
+      </c>
+      <c r="S65" s="1">
+        <v>59.342464</v>
+      </c>
+      <c r="T65" s="1">
+        <v>136.212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I66" s="2">
+        <v>1</v>
+      </c>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="P66" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R66" s="1">
+        <v>0.996496</v>
+      </c>
+      <c r="S66" s="1">
+        <v>8.02952</v>
+      </c>
+      <c r="T66" s="1">
+        <v>1009.13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I67" s="2">
+        <v>1</v>
+      </c>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="P67" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R67" s="1">
+        <v>1.523066</v>
+      </c>
+      <c r="S67" s="1">
+        <v>12.244872</v>
+      </c>
+      <c r="T67" s="1">
+        <v>660.09</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1</v>
+      </c>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="P68" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R68" s="1">
+        <v>2.14393</v>
+      </c>
+      <c r="S68" s="1">
+        <v>17.313488</v>
+      </c>
+      <c r="T68" s="1">
+        <v>467.954</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1</v>
+      </c>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="P69" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R69" s="1">
+        <v>2.914824</v>
+      </c>
+      <c r="S69" s="1">
+        <v>23.4214</v>
+      </c>
+      <c r="T69" s="1">
+        <v>344.063</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I70" s="2">
+        <v>1</v>
+      </c>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="P70" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R70" s="1">
+        <v>1.432267</v>
+      </c>
+      <c r="S70" s="1">
+        <v>11.508984</v>
+      </c>
+      <c r="T70" s="1">
+        <v>702.372</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I71" s="2">
+        <v>1</v>
+      </c>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="P71" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R71" s="1">
+        <v>2.186955</v>
+      </c>
+      <c r="S71" s="1">
+        <v>17.579456</v>
+      </c>
+      <c r="T71" s="1">
+        <v>458.797</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I72" s="2">
+        <v>1</v>
+      </c>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="P72" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R72" s="1">
+        <v>3.073305</v>
+      </c>
+      <c r="S72" s="1">
+        <v>24.705456</v>
+      </c>
+      <c r="T72" s="1">
+        <v>326.109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I73" s="2">
+        <v>1</v>
+      </c>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="P73" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R73" s="1">
+        <v>4.209352</v>
+      </c>
+      <c r="S73" s="1">
+        <v>33.84804</v>
+      </c>
+      <c r="T73" s="1">
+        <v>238.154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I74" s="2">
+        <v>1</v>
+      </c>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="P74" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R74" s="1">
+        <v>2.725122</v>
+      </c>
+      <c r="S74" s="1">
+        <v>21.922224</v>
+      </c>
+      <c r="T74" s="1">
+        <v>368.133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="A75" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G75" s="2">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I75" s="2">
+        <v>1</v>
+      </c>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="P75" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R75" s="1">
+        <v>4.175963</v>
+      </c>
+      <c r="S75" s="1">
+        <v>33.53064</v>
+      </c>
+      <c r="T75" s="1">
+        <v>239.967</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G76" s="2">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I76" s="2">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P76" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R76" s="1">
+        <v>5.886293</v>
+      </c>
+      <c r="S76" s="1">
+        <v>47.35576</v>
+      </c>
+      <c r="T76" s="1">
+        <v>170.206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G77" s="2">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I77" s="2">
+        <v>1</v>
+      </c>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="P77" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R77" s="1">
+        <v>8.075132</v>
+      </c>
+      <c r="S77" s="1">
+        <v>64.914528</v>
+      </c>
+      <c r="T77" s="1">
+        <v>124.03</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G78" s="2">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I78" s="2">
+        <v>1</v>
+      </c>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="P78" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R78" s="1">
+        <v>3.713304</v>
+      </c>
+      <c r="S78" s="1">
+        <v>29.922144</v>
+      </c>
+      <c r="T78" s="1">
+        <v>269.949</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="A79" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G79" s="2">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I79" s="2">
+        <v>1</v>
+      </c>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="P79" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R79" s="1">
+        <v>5.716413</v>
+      </c>
+      <c r="S79" s="1">
+        <v>45.940288</v>
+      </c>
+      <c r="T79" s="1">
+        <v>175.21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G80" s="2">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I80" s="2">
+        <v>1</v>
+      </c>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="P80" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R80" s="1">
+        <v>8.048104</v>
+      </c>
+      <c r="S80" s="1">
+        <v>64.70054399999999</v>
+      </c>
+      <c r="T80" s="1">
+        <v>124.442</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G81" s="2">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I81" s="2">
+        <v>1</v>
+      </c>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P81" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R81" s="1">
+        <v>11.059671</v>
+      </c>
+      <c r="S81" s="1">
+        <v>88.78572</v>
+      </c>
+      <c r="T81" s="1">
+        <v>90.538</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G82" s="2">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I82" s="2">
+        <v>1</v>
+      </c>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="P82" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R82" s="1">
+        <v>5.981776</v>
+      </c>
+      <c r="S82" s="1">
+        <v>48.356592</v>
+      </c>
+      <c r="T82" s="1">
+        <v>167.841</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I83" s="2">
+        <v>1</v>
+      </c>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="P83" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R83" s="1">
+        <v>5.327799</v>
+      </c>
+      <c r="S83" s="1">
+        <v>43.175576</v>
+      </c>
+      <c r="T83" s="1">
+        <v>188.485</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I84" s="2">
+        <v>1</v>
+      </c>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="P84" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R84" s="1">
+        <v>1.87607</v>
+      </c>
+      <c r="S84" s="1">
+        <v>15.18848</v>
+      </c>
+      <c r="T84" s="1">
+        <v>536.7380000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G85" s="2">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I85" s="2">
+        <v>1</v>
+      </c>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P85" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R85" s="1">
+        <v>1.459856</v>
+      </c>
+      <c r="S85" s="1">
+        <v>11.947056</v>
+      </c>
+      <c r="T85" s="1">
+        <v>691.553</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G86" s="2">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1</v>
+      </c>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="P86" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R86" s="1">
+        <v>13.102948</v>
+      </c>
+      <c r="S86" s="1">
+        <v>105.191264</v>
+      </c>
+      <c r="T86" s="1">
+        <v>76.4165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="A87" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G87" s="2">
+        <v>1</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I87" s="2">
+        <v>1</v>
+      </c>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="P87" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q87" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R87" s="1">
+        <v>7.628326</v>
+      </c>
+      <c r="S87" s="1">
+        <v>61.298728</v>
+      </c>
+      <c r="T87" s="1">
+        <v>131.39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="A88" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G88" s="2">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I88" s="2">
+        <v>1</v>
+      </c>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="P88" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R88" s="1">
+        <v>5.091581</v>
+      </c>
+      <c r="S88" s="1">
+        <v>41.00812</v>
+      </c>
+      <c r="T88" s="1">
+        <v>196.703</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G89" s="2">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I89" s="2">
+        <v>1</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K89" s="2">
+        <v>1</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="P89" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="U89" s="1">
+        <v>1424.917105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P90" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q90" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V90" s="1">
         <v>0.694931</v>
       </c>
     </row>
@@ -2035,20 +7714,20 @@
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:V2"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="N89:N90"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:CW201">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="563">
   <si>
     <t>Model</t>
   </si>
@@ -685,6 +685,9 @@
     <t>5.0-0168</t>
   </si>
   <si>
+    <t>5.0-0170</t>
+  </si>
+  <si>
     <t>edge/open/GATEOverflow/Asus_Tuf-reference-cpu-onnxruntime_v1.20.1-default_config/resnet50</t>
   </si>
   <si>
@@ -1177,6 +1180,9 @@
     <t>edge/open/GATEOverflow/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config/mobilenet-v3-precision_uint8-small-224</t>
   </si>
   <si>
+    <t>edge/open/MLCommons/8c42efe93456-reference-cpu-onnxruntime_v1.20.1-default_config/resnet50</t>
+  </si>
+  <si>
     <t>junikki</t>
   </si>
   <si>
@@ -1186,10 +1192,16 @@
     <t>mini</t>
   </si>
   <si>
+    <t>8c42efe93456</t>
+  </si>
+  <si>
     <t>AMD Ryzen 7 3750H with Radeon Vega Mobile Gfx</t>
   </si>
   <si>
     <t>AMD Ryzen 5 5560U with Radeon Graphics</t>
+  </si>
+  <si>
+    <t>12th Gen Intel(R) Core(TM) i5-1240P</t>
   </si>
   <si>
     <t>NVIDIA GeForce GTX 1650</t>
@@ -3167,7 +3179,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW171"/>
+  <dimension ref="A1:CW172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3299,7 +3311,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>35</v>
@@ -3311,13 +3323,13 @@
         <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -3325,14 +3337,14 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="P6" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/Asus_Tuf-reference-cpu-onnxruntime_v1.20.1-default_config","details")</f>
@@ -3357,7 +3369,7 @@
         <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>35</v>
@@ -3369,32 +3381,32 @@
         <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="P7" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/Asus_Tuf-reference-gpu-onnxruntime_v1.20.1-cu118","details")</f>
@@ -3419,7 +3431,7 @@
         <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>35</v>
@@ -3431,7 +3443,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -3445,14 +3457,14 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="P8" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -3477,7 +3489,7 @@
         <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>35</v>
@@ -3489,7 +3501,7 @@
         <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -3503,14 +3515,14 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="P9" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -3535,7 +3547,7 @@
         <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>35</v>
@@ -3547,7 +3559,7 @@
         <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -3561,14 +3573,14 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="P10" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -3593,7 +3605,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>35</v>
@@ -3605,7 +3617,7 @@
         <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -3619,14 +3631,14 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="P11" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -3651,7 +3663,7 @@
         <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>35</v>
@@ -3663,7 +3675,7 @@
         <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -3677,14 +3689,14 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="P12" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -3709,7 +3721,7 @@
         <v>65</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>35</v>
@@ -3721,7 +3733,7 @@
         <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -3735,14 +3747,14 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="P13" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -3767,7 +3779,7 @@
         <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>35</v>
@@ -3779,7 +3791,7 @@
         <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -3793,14 +3805,14 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="P14" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -3825,7 +3837,7 @@
         <v>67</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>35</v>
@@ -3837,7 +3849,7 @@
         <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -3851,14 +3863,14 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="P15" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -3883,7 +3895,7 @@
         <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>35</v>
@@ -3895,7 +3907,7 @@
         <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -3909,14 +3921,14 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="P16" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -3941,7 +3953,7 @@
         <v>69</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>35</v>
@@ -3953,7 +3965,7 @@
         <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -3967,14 +3979,14 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="P17" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -3999,7 +4011,7 @@
         <v>70</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>35</v>
@@ -4011,7 +4023,7 @@
         <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -4025,14 +4037,14 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="P18" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -4057,7 +4069,7 @@
         <v>71</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
@@ -4069,7 +4081,7 @@
         <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -4083,14 +4095,14 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="P19" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -4115,7 +4127,7 @@
         <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>35</v>
@@ -4127,7 +4139,7 @@
         <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -4141,14 +4153,14 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="P20" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -4173,7 +4185,7 @@
         <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>35</v>
@@ -4185,7 +4197,7 @@
         <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -4199,14 +4211,14 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="P21" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -4231,7 +4243,7 @@
         <v>74</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>35</v>
@@ -4243,7 +4255,7 @@
         <v>39</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -4257,14 +4269,14 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="P22" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -4289,7 +4301,7 @@
         <v>75</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>35</v>
@@ -4301,7 +4313,7 @@
         <v>39</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -4315,14 +4327,14 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="P23" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -4347,7 +4359,7 @@
         <v>76</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>35</v>
@@ -4359,7 +4371,7 @@
         <v>39</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -4373,14 +4385,14 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="P24" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -4405,7 +4417,7 @@
         <v>77</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>35</v>
@@ -4417,7 +4429,7 @@
         <v>39</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -4431,14 +4443,14 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="P25" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -4463,7 +4475,7 @@
         <v>78</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>35</v>
@@ -4475,7 +4487,7 @@
         <v>39</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -4489,14 +4501,14 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="P26" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -4521,7 +4533,7 @@
         <v>79</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>35</v>
@@ -4533,7 +4545,7 @@
         <v>39</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -4547,14 +4559,14 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="P27" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -4579,7 +4591,7 @@
         <v>80</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>35</v>
@@ -4591,7 +4603,7 @@
         <v>39</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -4605,14 +4617,14 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="P28" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -4637,7 +4649,7 @@
         <v>81</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>35</v>
@@ -4649,7 +4661,7 @@
         <v>39</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -4663,14 +4675,14 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="P29" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -4695,7 +4707,7 @@
         <v>82</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>35</v>
@@ -4707,7 +4719,7 @@
         <v>39</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -4721,14 +4733,14 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="P30" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -4753,7 +4765,7 @@
         <v>83</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>35</v>
@@ -4765,7 +4777,7 @@
         <v>39</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -4779,14 +4791,14 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="P31" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -4811,7 +4823,7 @@
         <v>84</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>35</v>
@@ -4823,7 +4835,7 @@
         <v>39</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -4837,14 +4849,14 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="P32" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -4869,7 +4881,7 @@
         <v>85</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>35</v>
@@ -4881,7 +4893,7 @@
         <v>39</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4895,14 +4907,14 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="P33" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -4927,7 +4939,7 @@
         <v>86</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>35</v>
@@ -4939,7 +4951,7 @@
         <v>39</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -4953,14 +4965,14 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="P34" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -4985,7 +4997,7 @@
         <v>87</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>35</v>
@@ -4997,7 +5009,7 @@
         <v>39</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -5011,14 +5023,14 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="P35" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -5043,7 +5055,7 @@
         <v>88</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>35</v>
@@ -5055,7 +5067,7 @@
         <v>39</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -5069,14 +5081,14 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="P36" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -5101,7 +5113,7 @@
         <v>89</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>35</v>
@@ -5113,7 +5125,7 @@
         <v>39</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -5127,14 +5139,14 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="P37" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -5159,7 +5171,7 @@
         <v>90</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>35</v>
@@ -5171,7 +5183,7 @@
         <v>39</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -5185,14 +5197,14 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="P38" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -5217,7 +5229,7 @@
         <v>91</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>35</v>
@@ -5229,7 +5241,7 @@
         <v>39</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -5243,14 +5255,14 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="P39" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -5275,7 +5287,7 @@
         <v>92</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>35</v>
@@ -5287,7 +5299,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -5301,14 +5313,14 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="P40" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -5333,7 +5345,7 @@
         <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>35</v>
@@ -5345,7 +5357,7 @@
         <v>39</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
@@ -5359,14 +5371,14 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="P41" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -5391,7 +5403,7 @@
         <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>35</v>
@@ -5403,7 +5415,7 @@
         <v>39</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
@@ -5417,14 +5429,14 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="P42" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -5449,7 +5461,7 @@
         <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>35</v>
@@ -5461,7 +5473,7 @@
         <v>39</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -5475,14 +5487,14 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="P43" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -5507,7 +5519,7 @@
         <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>35</v>
@@ -5519,7 +5531,7 @@
         <v>39</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -5533,14 +5545,14 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="P44" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -5565,7 +5577,7 @@
         <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>35</v>
@@ -5577,7 +5589,7 @@
         <v>39</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -5591,14 +5603,14 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="P45" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -5623,7 +5635,7 @@
         <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>35</v>
@@ -5635,7 +5647,7 @@
         <v>39</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -5649,14 +5661,14 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="P46" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -5681,7 +5693,7 @@
         <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>35</v>
@@ -5693,7 +5705,7 @@
         <v>39</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -5707,14 +5719,14 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="P47" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -5739,7 +5751,7 @@
         <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>35</v>
@@ -5751,7 +5763,7 @@
         <v>39</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -5765,14 +5777,14 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="P48" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -5797,7 +5809,7 @@
         <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>35</v>
@@ -5809,7 +5821,7 @@
         <v>39</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
@@ -5823,14 +5835,14 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="P49" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -5855,7 +5867,7 @@
         <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>35</v>
@@ -5867,7 +5879,7 @@
         <v>39</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
@@ -5881,14 +5893,14 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="P50" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -5913,7 +5925,7 @@
         <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>35</v>
@@ -5925,7 +5937,7 @@
         <v>39</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
@@ -5939,14 +5951,14 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="P51" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -5971,7 +5983,7 @@
         <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>35</v>
@@ -5983,7 +5995,7 @@
         <v>39</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
@@ -5997,14 +6009,14 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="P52" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -6029,7 +6041,7 @@
         <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>35</v>
@@ -6041,7 +6053,7 @@
         <v>39</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
@@ -6055,14 +6067,14 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="P53" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -6087,7 +6099,7 @@
         <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>35</v>
@@ -6099,7 +6111,7 @@
         <v>39</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -6113,14 +6125,14 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="P54" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -6145,7 +6157,7 @@
         <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>35</v>
@@ -6157,7 +6169,7 @@
         <v>39</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -6171,14 +6183,14 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="P55" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -6203,7 +6215,7 @@
         <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>35</v>
@@ -6215,7 +6227,7 @@
         <v>39</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
@@ -6229,14 +6241,14 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="P56" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -6261,7 +6273,7 @@
         <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>35</v>
@@ -6273,7 +6285,7 @@
         <v>39</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
@@ -6287,14 +6299,14 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="P57" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -6319,7 +6331,7 @@
         <v>110</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>35</v>
@@ -6331,7 +6343,7 @@
         <v>39</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
@@ -6345,14 +6357,14 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="P58" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -6377,7 +6389,7 @@
         <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>35</v>
@@ -6389,7 +6401,7 @@
         <v>39</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G59" s="2">
         <v>1</v>
@@ -6403,14 +6415,14 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="P59" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -6435,7 +6447,7 @@
         <v>112</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>35</v>
@@ -6447,7 +6459,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
@@ -6461,14 +6473,14 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="P60" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -6493,7 +6505,7 @@
         <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>35</v>
@@ -6505,7 +6517,7 @@
         <v>39</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
@@ -6519,14 +6531,14 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="P61" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -6551,7 +6563,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>35</v>
@@ -6563,7 +6575,7 @@
         <v>39</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G62" s="2">
         <v>1</v>
@@ -6577,14 +6589,14 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="P62" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -6609,7 +6621,7 @@
         <v>115</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>35</v>
@@ -6621,7 +6633,7 @@
         <v>39</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
@@ -6635,14 +6647,14 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="P63" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -6667,7 +6679,7 @@
         <v>116</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>35</v>
@@ -6679,7 +6691,7 @@
         <v>39</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
@@ -6693,14 +6705,14 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="P64" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -6725,7 +6737,7 @@
         <v>117</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>35</v>
@@ -6737,7 +6749,7 @@
         <v>39</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
@@ -6751,14 +6763,14 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="P65" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -6783,7 +6795,7 @@
         <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>35</v>
@@ -6795,7 +6807,7 @@
         <v>39</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G66" s="2">
         <v>1</v>
@@ -6809,14 +6821,14 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="P66" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -6841,7 +6853,7 @@
         <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>35</v>
@@ -6853,7 +6865,7 @@
         <v>39</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
@@ -6867,14 +6879,14 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="P67" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -6899,7 +6911,7 @@
         <v>120</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>35</v>
@@ -6911,7 +6923,7 @@
         <v>39</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G68" s="2">
         <v>1</v>
@@ -6925,14 +6937,14 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="P68" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -6957,7 +6969,7 @@
         <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>35</v>
@@ -6969,7 +6981,7 @@
         <v>39</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G69" s="2">
         <v>1</v>
@@ -6983,14 +6995,14 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="P69" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -7015,7 +7027,7 @@
         <v>122</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>35</v>
@@ -7027,7 +7039,7 @@
         <v>39</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G70" s="2">
         <v>1</v>
@@ -7041,14 +7053,14 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="P70" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -7073,7 +7085,7 @@
         <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>35</v>
@@ -7085,7 +7097,7 @@
         <v>39</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G71" s="2">
         <v>1</v>
@@ -7099,14 +7111,14 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="P71" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -7131,7 +7143,7 @@
         <v>124</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>35</v>
@@ -7143,7 +7155,7 @@
         <v>39</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -7157,14 +7169,14 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="P72" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -7189,7 +7201,7 @@
         <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>35</v>
@@ -7201,7 +7213,7 @@
         <v>39</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
@@ -7215,14 +7227,14 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="P73" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -7247,7 +7259,7 @@
         <v>126</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>35</v>
@@ -7259,7 +7271,7 @@
         <v>39</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -7273,14 +7285,14 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="P74" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -7305,7 +7317,7 @@
         <v>127</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>35</v>
@@ -7317,7 +7329,7 @@
         <v>39</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
@@ -7331,14 +7343,14 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="P75" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -7363,7 +7375,7 @@
         <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>35</v>
@@ -7375,7 +7387,7 @@
         <v>39</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G76" s="2">
         <v>1</v>
@@ -7389,14 +7401,14 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="P76" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -7421,7 +7433,7 @@
         <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>35</v>
@@ -7433,7 +7445,7 @@
         <v>39</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G77" s="2">
         <v>1</v>
@@ -7447,14 +7459,14 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="P77" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -7479,7 +7491,7 @@
         <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>35</v>
@@ -7491,7 +7503,7 @@
         <v>39</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G78" s="2">
         <v>1</v>
@@ -7505,14 +7517,14 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="P78" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -7537,7 +7549,7 @@
         <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>35</v>
@@ -7549,7 +7561,7 @@
         <v>39</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G79" s="2">
         <v>1</v>
@@ -7563,14 +7575,14 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="P79" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -7595,7 +7607,7 @@
         <v>132</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>35</v>
@@ -7607,7 +7619,7 @@
         <v>39</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -7621,14 +7633,14 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="P80" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -7653,7 +7665,7 @@
         <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>35</v>
@@ -7665,7 +7677,7 @@
         <v>39</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G81" s="2">
         <v>1</v>
@@ -7679,14 +7691,14 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="P81" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -7711,7 +7723,7 @@
         <v>134</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>35</v>
@@ -7723,7 +7735,7 @@
         <v>39</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G82" s="2">
         <v>1</v>
@@ -7737,14 +7749,14 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="P82" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -7769,7 +7781,7 @@
         <v>135</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>35</v>
@@ -7781,7 +7793,7 @@
         <v>39</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G83" s="2">
         <v>1</v>
@@ -7795,14 +7807,14 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="P83" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -7827,7 +7839,7 @@
         <v>136</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>35</v>
@@ -7839,7 +7851,7 @@
         <v>39</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G84" s="2">
         <v>1</v>
@@ -7853,14 +7865,14 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="P84" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -7885,7 +7897,7 @@
         <v>137</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>35</v>
@@ -7897,7 +7909,7 @@
         <v>39</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
@@ -7911,14 +7923,14 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="P85" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -7943,7 +7955,7 @@
         <v>138</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>35</v>
@@ -7955,7 +7967,7 @@
         <v>39</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
@@ -7969,14 +7981,14 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="P86" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -8001,7 +8013,7 @@
         <v>139</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>35</v>
@@ -8013,7 +8025,7 @@
         <v>39</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G87" s="2">
         <v>1</v>
@@ -8027,14 +8039,14 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="P87" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -8059,7 +8071,7 @@
         <v>140</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>35</v>
@@ -8071,7 +8083,7 @@
         <v>39</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G88" s="2">
         <v>1</v>
@@ -8085,14 +8097,14 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="P88" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/intel_spr_i9-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -8117,7 +8129,7 @@
         <v>141</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>35</v>
@@ -8129,13 +8141,13 @@
         <v>39</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G89" s="2">
         <v>1</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I89" s="2">
         <v>1</v>
@@ -8143,14 +8155,14 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="P89" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -8175,7 +8187,7 @@
         <v>142</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>35</v>
@@ -8187,13 +8199,13 @@
         <v>39</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G90" s="2">
         <v>1</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I90" s="2">
         <v>1</v>
@@ -8201,14 +8213,14 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="P90" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -8233,7 +8245,7 @@
         <v>143</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>35</v>
@@ -8245,13 +8257,13 @@
         <v>39</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G91" s="2">
         <v>1</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I91" s="2">
         <v>1</v>
@@ -8259,14 +8271,14 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="P91" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -8291,7 +8303,7 @@
         <v>144</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>35</v>
@@ -8303,13 +8315,13 @@
         <v>39</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G92" s="2">
         <v>1</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I92" s="2">
         <v>1</v>
@@ -8317,14 +8329,14 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="P92" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -8349,7 +8361,7 @@
         <v>145</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>35</v>
@@ -8361,13 +8373,13 @@
         <v>39</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G93" s="2">
         <v>1</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I93" s="2">
         <v>1</v>
@@ -8375,14 +8387,14 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="P93" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -8407,7 +8419,7 @@
         <v>146</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>35</v>
@@ -8419,13 +8431,13 @@
         <v>39</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G94" s="2">
         <v>1</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I94" s="2">
         <v>1</v>
@@ -8433,14 +8445,14 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="P94" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -8465,7 +8477,7 @@
         <v>147</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>35</v>
@@ -8477,13 +8489,13 @@
         <v>39</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G95" s="2">
         <v>1</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I95" s="2">
         <v>1</v>
@@ -8491,14 +8503,14 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="P95" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -8523,7 +8535,7 @@
         <v>148</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>35</v>
@@ -8535,13 +8547,13 @@
         <v>39</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G96" s="2">
         <v>1</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I96" s="2">
         <v>1</v>
@@ -8549,14 +8561,14 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="P96" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -8581,7 +8593,7 @@
         <v>149</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>35</v>
@@ -8593,13 +8605,13 @@
         <v>39</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G97" s="2">
         <v>1</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I97" s="2">
         <v>1</v>
@@ -8607,14 +8619,14 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="P97" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -8639,7 +8651,7 @@
         <v>150</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>35</v>
@@ -8651,13 +8663,13 @@
         <v>39</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G98" s="2">
         <v>1</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I98" s="2">
         <v>1</v>
@@ -8665,14 +8677,14 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="P98" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -8697,7 +8709,7 @@
         <v>151</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>35</v>
@@ -8709,13 +8721,13 @@
         <v>39</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G99" s="2">
         <v>1</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I99" s="2">
         <v>1</v>
@@ -8723,14 +8735,14 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="P99" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -8755,7 +8767,7 @@
         <v>152</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>35</v>
@@ -8767,13 +8779,13 @@
         <v>39</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G100" s="2">
         <v>1</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I100" s="2">
         <v>1</v>
@@ -8781,14 +8793,14 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="P100" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -8813,7 +8825,7 @@
         <v>153</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>35</v>
@@ -8825,13 +8837,13 @@
         <v>39</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G101" s="2">
         <v>1</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I101" s="2">
         <v>1</v>
@@ -8839,14 +8851,14 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="P101" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -8871,7 +8883,7 @@
         <v>154</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>35</v>
@@ -8883,13 +8895,13 @@
         <v>39</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G102" s="2">
         <v>1</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I102" s="2">
         <v>1</v>
@@ -8897,14 +8909,14 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="P102" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -8929,7 +8941,7 @@
         <v>155</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>35</v>
@@ -8941,13 +8953,13 @@
         <v>39</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G103" s="2">
         <v>1</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I103" s="2">
         <v>1</v>
@@ -8955,14 +8967,14 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="P103" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -8987,7 +8999,7 @@
         <v>156</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>35</v>
@@ -8999,13 +9011,13 @@
         <v>39</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G104" s="2">
         <v>1</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I104" s="2">
         <v>1</v>
@@ -9013,14 +9025,14 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="P104" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -9045,7 +9057,7 @@
         <v>157</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>35</v>
@@ -9057,13 +9069,13 @@
         <v>39</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G105" s="2">
         <v>1</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I105" s="2">
         <v>1</v>
@@ -9071,14 +9083,14 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="P105" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -9103,7 +9115,7 @@
         <v>158</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>35</v>
@@ -9115,13 +9127,13 @@
         <v>39</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G106" s="2">
         <v>1</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I106" s="2">
         <v>1</v>
@@ -9129,14 +9141,14 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="P106" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -9161,7 +9173,7 @@
         <v>159</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>35</v>
@@ -9173,13 +9185,13 @@
         <v>39</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G107" s="2">
         <v>1</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I107" s="2">
         <v>1</v>
@@ -9187,14 +9199,14 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="P107" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -9219,7 +9231,7 @@
         <v>160</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>35</v>
@@ -9231,13 +9243,13 @@
         <v>39</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G108" s="2">
         <v>1</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I108" s="2">
         <v>1</v>
@@ -9245,14 +9257,14 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="P108" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -9277,7 +9289,7 @@
         <v>161</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>35</v>
@@ -9289,13 +9301,13 @@
         <v>39</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G109" s="2">
         <v>1</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I109" s="2">
         <v>1</v>
@@ -9303,14 +9315,14 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="P109" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -9335,7 +9347,7 @@
         <v>162</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>35</v>
@@ -9347,13 +9359,13 @@
         <v>39</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G110" s="2">
         <v>1</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I110" s="2">
         <v>1</v>
@@ -9361,14 +9373,14 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="P110" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -9393,7 +9405,7 @@
         <v>163</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>35</v>
@@ -9405,13 +9417,13 @@
         <v>39</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G111" s="2">
         <v>1</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I111" s="2">
         <v>1</v>
@@ -9419,14 +9431,14 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="P111" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -9451,7 +9463,7 @@
         <v>164</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>35</v>
@@ -9463,13 +9475,13 @@
         <v>39</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G112" s="2">
         <v>1</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I112" s="2">
         <v>1</v>
@@ -9477,14 +9489,14 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="P112" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -9509,7 +9521,7 @@
         <v>165</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>35</v>
@@ -9521,13 +9533,13 @@
         <v>39</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G113" s="2">
         <v>1</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I113" s="2">
         <v>1</v>
@@ -9535,14 +9547,14 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="P113" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -9567,7 +9579,7 @@
         <v>166</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>35</v>
@@ -9579,13 +9591,13 @@
         <v>39</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G114" s="2">
         <v>1</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I114" s="2">
         <v>1</v>
@@ -9593,14 +9605,14 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="P114" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -9625,7 +9637,7 @@
         <v>167</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>35</v>
@@ -9637,13 +9649,13 @@
         <v>39</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G115" s="2">
         <v>1</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I115" s="2">
         <v>1</v>
@@ -9651,14 +9663,14 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="P115" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -9683,7 +9695,7 @@
         <v>168</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>35</v>
@@ -9695,13 +9707,13 @@
         <v>39</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G116" s="2">
         <v>1</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I116" s="2">
         <v>1</v>
@@ -9709,14 +9721,14 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="P116" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -9741,7 +9753,7 @@
         <v>169</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>35</v>
@@ -9753,13 +9765,13 @@
         <v>39</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G117" s="2">
         <v>1</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I117" s="2">
         <v>1</v>
@@ -9767,14 +9779,14 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="P117" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -9799,7 +9811,7 @@
         <v>170</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>35</v>
@@ -9811,13 +9823,13 @@
         <v>39</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G118" s="2">
         <v>1</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I118" s="2">
         <v>1</v>
@@ -9825,14 +9837,14 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="P118" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -9857,7 +9869,7 @@
         <v>171</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>35</v>
@@ -9869,13 +9881,13 @@
         <v>39</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G119" s="2">
         <v>1</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I119" s="2">
         <v>1</v>
@@ -9883,14 +9895,14 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="P119" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -9915,7 +9927,7 @@
         <v>172</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>35</v>
@@ -9927,13 +9939,13 @@
         <v>39</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G120" s="2">
         <v>1</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I120" s="2">
         <v>1</v>
@@ -9941,14 +9953,14 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="P120" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -9973,7 +9985,7 @@
         <v>173</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>35</v>
@@ -9985,13 +9997,13 @@
         <v>39</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G121" s="2">
         <v>1</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I121" s="2">
         <v>1</v>
@@ -9999,14 +10011,14 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="P121" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -10031,7 +10043,7 @@
         <v>174</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>35</v>
@@ -10043,13 +10055,13 @@
         <v>39</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G122" s="2">
         <v>1</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I122" s="2">
         <v>1</v>
@@ -10057,14 +10069,14 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="P122" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -10089,7 +10101,7 @@
         <v>175</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>35</v>
@@ -10101,13 +10113,13 @@
         <v>39</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G123" s="2">
         <v>1</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I123" s="2">
         <v>1</v>
@@ -10115,14 +10127,14 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="P123" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -10147,7 +10159,7 @@
         <v>176</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>35</v>
@@ -10159,13 +10171,13 @@
         <v>39</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G124" s="2">
         <v>1</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I124" s="2">
         <v>1</v>
@@ -10173,14 +10185,14 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="P124" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -10205,7 +10217,7 @@
         <v>177</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>35</v>
@@ -10217,13 +10229,13 @@
         <v>39</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G125" s="2">
         <v>1</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I125" s="2">
         <v>1</v>
@@ -10231,14 +10243,14 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="P125" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -10263,7 +10275,7 @@
         <v>178</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>35</v>
@@ -10275,13 +10287,13 @@
         <v>39</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G126" s="2">
         <v>1</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I126" s="2">
         <v>1</v>
@@ -10289,14 +10301,14 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="P126" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -10321,7 +10333,7 @@
         <v>179</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>35</v>
@@ -10333,13 +10345,13 @@
         <v>39</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G127" s="2">
         <v>1</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I127" s="2">
         <v>1</v>
@@ -10347,14 +10359,14 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="P127" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -10379,7 +10391,7 @@
         <v>180</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>35</v>
@@ -10391,13 +10403,13 @@
         <v>39</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G128" s="2">
         <v>1</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I128" s="2">
         <v>1</v>
@@ -10405,14 +10417,14 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
       <c r="L128" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="P128" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -10437,7 +10449,7 @@
         <v>181</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>35</v>
@@ -10449,13 +10461,13 @@
         <v>39</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G129" s="2">
         <v>1</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I129" s="2">
         <v>1</v>
@@ -10463,14 +10475,14 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
       <c r="L129" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="P129" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -10495,7 +10507,7 @@
         <v>182</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>35</v>
@@ -10507,13 +10519,13 @@
         <v>39</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G130" s="2">
         <v>1</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I130" s="2">
         <v>1</v>
@@ -10521,14 +10533,14 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
       <c r="L130" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="P130" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -10553,7 +10565,7 @@
         <v>183</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>35</v>
@@ -10565,13 +10577,13 @@
         <v>39</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G131" s="2">
         <v>1</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I131" s="2">
         <v>1</v>
@@ -10579,14 +10591,14 @@
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="P131" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -10611,7 +10623,7 @@
         <v>184</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>35</v>
@@ -10623,13 +10635,13 @@
         <v>39</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G132" s="2">
         <v>1</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I132" s="2">
         <v>1</v>
@@ -10637,14 +10649,14 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
       <c r="L132" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="P132" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -10669,7 +10681,7 @@
         <v>185</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>35</v>
@@ -10681,13 +10693,13 @@
         <v>39</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G133" s="2">
         <v>1</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I133" s="2">
         <v>1</v>
@@ -10695,14 +10707,14 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
       <c r="L133" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="P133" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -10727,7 +10739,7 @@
         <v>186</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>35</v>
@@ -10739,13 +10751,13 @@
         <v>39</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G134" s="2">
         <v>1</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I134" s="2">
         <v>1</v>
@@ -10753,14 +10765,14 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="P134" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -10785,7 +10797,7 @@
         <v>187</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>35</v>
@@ -10797,13 +10809,13 @@
         <v>39</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G135" s="2">
         <v>1</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I135" s="2">
         <v>1</v>
@@ -10811,14 +10823,14 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
       <c r="L135" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="P135" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -10843,7 +10855,7 @@
         <v>188</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>35</v>
@@ -10855,13 +10867,13 @@
         <v>39</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G136" s="2">
         <v>1</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I136" s="2">
         <v>1</v>
@@ -10869,14 +10881,14 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
       <c r="L136" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="P136" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -10901,7 +10913,7 @@
         <v>189</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>35</v>
@@ -10913,13 +10925,13 @@
         <v>39</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G137" s="2">
         <v>1</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I137" s="2">
         <v>1</v>
@@ -10927,14 +10939,14 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
       <c r="L137" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="P137" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -10959,7 +10971,7 @@
         <v>190</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>35</v>
@@ -10971,13 +10983,13 @@
         <v>39</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G138" s="2">
         <v>1</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I138" s="2">
         <v>1</v>
@@ -10985,14 +10997,14 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
       <c r="L138" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="P138" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -11017,7 +11029,7 @@
         <v>191</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>35</v>
@@ -11029,13 +11041,13 @@
         <v>39</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G139" s="2">
         <v>1</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I139" s="2">
         <v>1</v>
@@ -11043,14 +11055,14 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
       <c r="L139" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="P139" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -11075,7 +11087,7 @@
         <v>192</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>35</v>
@@ -11087,13 +11099,13 @@
         <v>39</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G140" s="2">
         <v>1</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I140" s="2">
         <v>1</v>
@@ -11101,14 +11113,14 @@
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
       <c r="L140" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="P140" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -11133,7 +11145,7 @@
         <v>193</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>35</v>
@@ -11145,13 +11157,13 @@
         <v>39</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G141" s="2">
         <v>1</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I141" s="2">
         <v>1</v>
@@ -11159,14 +11171,14 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
       <c r="L141" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="P141" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -11191,7 +11203,7 @@
         <v>194</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>35</v>
@@ -11203,13 +11215,13 @@
         <v>39</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G142" s="2">
         <v>1</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I142" s="2">
         <v>1</v>
@@ -11217,14 +11229,14 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
       <c r="L142" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="P142" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -11249,7 +11261,7 @@
         <v>195</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>35</v>
@@ -11261,13 +11273,13 @@
         <v>39</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G143" s="2">
         <v>1</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I143" s="2">
         <v>1</v>
@@ -11275,14 +11287,14 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="P143" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -11307,7 +11319,7 @@
         <v>196</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>35</v>
@@ -11319,13 +11331,13 @@
         <v>39</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G144" s="2">
         <v>1</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I144" s="2">
         <v>1</v>
@@ -11333,14 +11345,14 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="P144" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -11365,7 +11377,7 @@
         <v>197</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>35</v>
@@ -11377,13 +11389,13 @@
         <v>39</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G145" s="2">
         <v>1</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I145" s="2">
         <v>1</v>
@@ -11391,14 +11403,14 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="P145" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -11423,7 +11435,7 @@
         <v>198</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>35</v>
@@ -11435,13 +11447,13 @@
         <v>39</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G146" s="2">
         <v>1</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I146" s="2">
         <v>1</v>
@@ -11449,14 +11461,14 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="P146" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -11481,7 +11493,7 @@
         <v>199</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>35</v>
@@ -11493,13 +11505,13 @@
         <v>39</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G147" s="2">
         <v>1</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I147" s="2">
         <v>1</v>
@@ -11507,14 +11519,14 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
       <c r="L147" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="P147" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -11539,7 +11551,7 @@
         <v>200</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>35</v>
@@ -11551,13 +11563,13 @@
         <v>39</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G148" s="2">
         <v>1</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I148" s="2">
         <v>1</v>
@@ -11565,14 +11577,14 @@
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
       <c r="L148" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="P148" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -11597,7 +11609,7 @@
         <v>201</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>35</v>
@@ -11609,13 +11621,13 @@
         <v>39</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G149" s="2">
         <v>1</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I149" s="2">
         <v>1</v>
@@ -11623,14 +11635,14 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
       <c r="L149" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="P149" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -11655,7 +11667,7 @@
         <v>202</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>35</v>
@@ -11667,13 +11679,13 @@
         <v>39</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G150" s="2">
         <v>1</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I150" s="2">
         <v>1</v>
@@ -11681,14 +11693,14 @@
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
       <c r="L150" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="P150" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -11713,7 +11725,7 @@
         <v>203</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>35</v>
@@ -11725,13 +11737,13 @@
         <v>39</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G151" s="2">
         <v>1</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I151" s="2">
         <v>1</v>
@@ -11739,14 +11751,14 @@
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
       <c r="L151" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="P151" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -11771,7 +11783,7 @@
         <v>204</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>35</v>
@@ -11783,13 +11795,13 @@
         <v>39</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G152" s="2">
         <v>1</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I152" s="2">
         <v>1</v>
@@ -11797,14 +11809,14 @@
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
       <c r="L152" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="P152" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -11829,7 +11841,7 @@
         <v>205</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>35</v>
@@ -11841,13 +11853,13 @@
         <v>39</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G153" s="2">
         <v>1</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I153" s="2">
         <v>1</v>
@@ -11855,14 +11867,14 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="P153" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -11887,7 +11899,7 @@
         <v>206</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>35</v>
@@ -11899,13 +11911,13 @@
         <v>39</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G154" s="2">
         <v>1</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I154" s="2">
         <v>1</v>
@@ -11913,14 +11925,14 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="P154" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -11945,7 +11957,7 @@
         <v>207</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>35</v>
@@ -11957,13 +11969,13 @@
         <v>39</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G155" s="2">
         <v>1</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I155" s="2">
         <v>1</v>
@@ -11971,14 +11983,14 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="P155" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -12003,7 +12015,7 @@
         <v>208</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>35</v>
@@ -12015,13 +12027,13 @@
         <v>39</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G156" s="2">
         <v>1</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I156" s="2">
         <v>1</v>
@@ -12029,14 +12041,14 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
       <c r="L156" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="P156" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -12061,7 +12073,7 @@
         <v>209</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>35</v>
@@ -12073,13 +12085,13 @@
         <v>39</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G157" s="2">
         <v>1</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I157" s="2">
         <v>1</v>
@@ -12087,14 +12099,14 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="P157" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -12119,7 +12131,7 @@
         <v>210</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>35</v>
@@ -12131,13 +12143,13 @@
         <v>39</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G158" s="2">
         <v>1</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I158" s="2">
         <v>1</v>
@@ -12145,14 +12157,14 @@
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
       <c r="L158" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="P158" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -12177,7 +12189,7 @@
         <v>211</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>35</v>
@@ -12189,13 +12201,13 @@
         <v>39</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G159" s="2">
         <v>1</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I159" s="2">
         <v>1</v>
@@ -12203,14 +12215,14 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
       <c r="L159" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="P159" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -12235,7 +12247,7 @@
         <v>212</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>35</v>
@@ -12247,13 +12259,13 @@
         <v>39</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G160" s="2">
         <v>1</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I160" s="2">
         <v>1</v>
@@ -12261,14 +12273,14 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="P160" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -12293,7 +12305,7 @@
         <v>213</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>35</v>
@@ -12305,13 +12317,13 @@
         <v>39</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G161" s="2">
         <v>1</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I161" s="2">
         <v>1</v>
@@ -12319,14 +12331,14 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="O161" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="P161" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -12351,7 +12363,7 @@
         <v>214</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>35</v>
@@ -12363,13 +12375,13 @@
         <v>39</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G162" s="2">
         <v>1</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I162" s="2">
         <v>1</v>
@@ -12377,14 +12389,14 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
       <c r="L162" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" s="2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="P162" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -12409,7 +12421,7 @@
         <v>215</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>35</v>
@@ -12421,13 +12433,13 @@
         <v>39</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G163" s="2">
         <v>1</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I163" s="2">
         <v>1</v>
@@ -12435,14 +12447,14 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
       <c r="L163" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="O163" s="2" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="P163" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -12467,7 +12479,7 @@
         <v>216</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>35</v>
@@ -12479,13 +12491,13 @@
         <v>39</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G164" s="2">
         <v>1</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I164" s="2">
         <v>1</v>
@@ -12493,14 +12505,14 @@
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
       <c r="L164" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" s="2" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="P164" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -12525,7 +12537,7 @@
         <v>217</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>35</v>
@@ -12537,13 +12549,13 @@
         <v>39</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G165" s="2">
         <v>1</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I165" s="2">
         <v>1</v>
@@ -12551,14 +12563,14 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
       <c r="L165" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="P165" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -12583,7 +12595,7 @@
         <v>218</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>35</v>
@@ -12595,13 +12607,13 @@
         <v>39</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G166" s="2">
         <v>1</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I166" s="2">
         <v>1</v>
@@ -12609,14 +12621,14 @@
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
       <c r="L166" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="P166" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -12641,7 +12653,7 @@
         <v>219</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>35</v>
@@ -12653,13 +12665,13 @@
         <v>39</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G167" s="2">
         <v>1</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I167" s="2">
         <v>1</v>
@@ -12667,14 +12679,14 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
       <c r="L167" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="O167" s="2" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="P167" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -12699,7 +12711,7 @@
         <v>220</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>35</v>
@@ -12711,13 +12723,13 @@
         <v>39</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G168" s="2">
         <v>1</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I168" s="2">
         <v>1</v>
@@ -12725,14 +12737,14 @@
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
       <c r="L168" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="P168" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -12757,7 +12769,7 @@
         <v>221</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>35</v>
@@ -12769,13 +12781,13 @@
         <v>39</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G169" s="2">
         <v>1</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I169" s="2">
         <v>1</v>
@@ -12783,14 +12795,14 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
       <c r="L169" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="P169" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/GATEOverflow/results/mini-ctuning_cpp_tflite-cpu-tflite_vmaster-default_config","details")</f>
@@ -12852,7 +12864,7 @@
         <v>52</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="P170" s="2">
         <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/results/RTX4090x1-nvidia-gpu-TensorRT-default_config","details")</f>
@@ -12894,6 +12906,61 @@
       </c>
       <c r="V171" s="1">
         <v>0.694931</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22">
+      <c r="A172" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G172" s="2">
+        <v>1</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I172" s="2">
+        <v>1</v>
+      </c>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+      <c r="L172" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="O172" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="P172" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/results/8c42efe93456-reference-cpu-onnxruntime_v1.20.1-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q172" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_4.1/tree/main/open/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R172" s="1">
+        <v>61.337068</v>
+      </c>
+      <c r="T172" s="1">
+        <v>26.7933</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -6292,13 +6292,13 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>88.252341</v>
+        <v>56.676177</v>
       </c>
       <c r="S20" s="1">
-        <v>502.542248</v>
+        <v>594.391617</v>
       </c>
       <c r="T20" s="1">
-        <v>17.0229</v>
+        <v>15.7942</v>
       </c>
     </row>
     <row r="21" spans="1:20">
